--- a/Src/Data/Tables/ItemDefine.xlsx
+++ b/Src/Data/Tables/ItemDefine.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>描述</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>销售价格</t>
+  </si>
+  <si>
+    <t>叠加限制</t>
+  </si>
+  <si>
+    <t>图标</t>
   </si>
   <si>
     <t>功能</t>
@@ -82,6 +88,12 @@
     <t>SellPrice</t>
   </si>
   <si>
+    <t>StackLimit</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
     <t>Function</t>
   </si>
   <si>
@@ -100,7 +112,10 @@
     <t>NORMAL</t>
   </si>
   <si>
-    <t>Portion</t>
+    <t>Potion</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/HpPotion</t>
   </si>
   <si>
     <t>RecoverHP</t>
@@ -110,6 +125,9 @@
   </si>
   <si>
     <t>Instant 500 MP recovery after use</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/MpPotion</t>
   </si>
   <si>
     <t>RecoverMP</t>
@@ -124,6 +142,9 @@
     <t>Food</t>
   </si>
   <si>
+    <t>UI/ItemIcons/Bread</t>
+  </si>
+  <si>
     <t>AddBuff</t>
   </si>
   <si>
@@ -133,6 +154,9 @@
     <t>1000 MP recovery in 5s after use</t>
   </si>
   <si>
+    <t>UI/ItemIcons/Soup</t>
+  </si>
+  <si>
     <t>Small Exp Book</t>
   </si>
   <si>
@@ -140,6 +164,9 @@
   </si>
   <si>
     <t>Exp Book</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/ExpBook</t>
   </si>
   <si>
     <t>AddExp</t>
@@ -157,10 +184,16 @@
     <t>Bage</t>
   </si>
   <si>
+    <t>UI/ItemIcons/HonorBadge</t>
+  </si>
+  <si>
     <t>Money Bag</t>
   </si>
   <si>
     <t>Obtains 1000 gold</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/SmallMoneyBag</t>
   </si>
   <si>
     <t>AddMoney</t>
@@ -172,6 +205,9 @@
     <t>Obtains 10000 gold(or 10 Money Bags if you will LOL)</t>
   </si>
   <si>
+    <t>UI/ItemIcons/BigMoneyBag</t>
+  </si>
+  <si>
     <t>Epic Equip Box</t>
   </si>
   <si>
@@ -181,6 +217,9 @@
     <t>Equip Box</t>
   </si>
   <si>
+    <t>UI/ItemIcons/TreasureBox</t>
+  </si>
+  <si>
     <t>AddItem</t>
   </si>
   <si>
@@ -188,6 +227,9 @@
   </si>
   <si>
     <t>Obtains 1 Skill Point</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/SpellBook</t>
   </si>
   <si>
     <t>AddSkillPoint</t>
@@ -260,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -273,6 +315,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -282,7 +327,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -310,6 +355,9 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -376,8 +424,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:M13" displayName="Table_1" id="1">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:O13" displayName="Table_1" id="1">
+  <tableColumns count="15">
     <tableColumn name="Key" id="1"/>
     <tableColumn name="ID" id="2"/>
     <tableColumn name="Name" id="3"/>
@@ -388,9 +436,11 @@
     <tableColumn name="CD" id="8"/>
     <tableColumn name="Price" id="9"/>
     <tableColumn name="SellPrice" id="10"/>
-    <tableColumn name="Function" id="11"/>
-    <tableColumn name="Param" id="12"/>
-    <tableColumn name="Params" id="13"/>
+    <tableColumn name="StackLimit" id="11"/>
+    <tableColumn name="Icon" id="12"/>
+    <tableColumn name="Function" id="13"/>
+    <tableColumn name="Param" id="14"/>
+    <tableColumn name="Params" id="15"/>
   </tableColumns>
   <tableStyleInfo name="Elements-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -607,8 +657,10 @@
     <col customWidth="1" min="6" max="6" width="15.14"/>
     <col customWidth="1" min="7" max="7" width="13.71"/>
     <col customWidth="1" min="8" max="10" width="16.29"/>
-    <col customWidth="1" min="11" max="11" width="23.43"/>
-    <col customWidth="1" min="12" max="26" width="16.29"/>
+    <col customWidth="1" min="11" max="11" width="10.71"/>
+    <col customWidth="1" min="12" max="12" width="33.14"/>
+    <col customWidth="1" min="13" max="13" width="23.43"/>
+    <col customWidth="1" min="14" max="28" width="16.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -631,7 +683,7 @@
       <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -640,9 +692,13 @@
       <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="5"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -654,47 +710,53 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -706,49 +768,55 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="J3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="L3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -760,47 +828,53 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="14">
+      <c r="A4" s="15">
         <v>1.0</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="15">
         <v>1.0</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="15" t="b">
+      <c r="C4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="16">
         <v>1.0</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="17">
         <v>200.0</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="18">
         <v>100.0</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="16">
+      <c r="K4" s="17">
+        <v>99.0</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="17">
         <v>500.0</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -812,47 +886,53 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>2.0</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="15">
         <v>2.0</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="15" t="b">
+      <c r="F5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="15">
         <v>1.0</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="17">
         <v>200.0</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="18">
         <v>100.0</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="16">
+      <c r="K5" s="17">
+        <v>99.0</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="17">
         <v>500.0</v>
       </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -864,47 +944,53 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="14">
+      <c r="A6" s="15">
         <v>3.0</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="15">
         <v>3.0</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="15" t="b">
+      <c r="C6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="20">
         <v>5.0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="17">
         <v>200.0</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="18">
         <v>100.0</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="16">
+      <c r="K6" s="17">
+        <v>99.0</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="17">
         <v>1.0</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="19"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -916,47 +1002,53 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="14">
+      <c r="A7" s="15">
         <v>4.0</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="15">
         <v>4.0</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="15" t="b">
+      <c r="C7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="20">
         <v>5.0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="17">
         <v>200.0</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="18">
         <v>100.0</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="17">
+      <c r="K7" s="17">
+        <v>99.0</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="19">
         <v>2.0</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="O7" s="19"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -968,43 +1060,49 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="15">
+      <c r="A8" s="16">
         <v>5.0</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="15">
         <v>5.0</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="15" t="b">
+      <c r="C8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="20">
         <v>0.0</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16">
+      <c r="I8" s="19"/>
+      <c r="J8" s="18">
         <v>1.0</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="K8" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1016,41 +1114,47 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>6.0</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="15">
         <v>6.0</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="15" t="b">
+      <c r="C9" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="20">
         <v>0.0</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="16">
+      <c r="I9" s="19"/>
+      <c r="J9" s="18">
         <v>1.0</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="K9" s="17">
+        <v>99.0</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1062,43 +1166,49 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="14">
+      <c r="A10" s="15">
         <v>7.0</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="15">
         <v>7.0</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="18">
+      <c r="C10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="20">
         <v>0.0</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="16">
+      <c r="I10" s="19"/>
+      <c r="J10" s="18">
         <v>1.0</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="16">
+      <c r="K10" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="17">
         <v>1000.0</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="O10" s="19"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1110,45 +1220,51 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="14">
+      <c r="A11" s="15">
         <v>8.0</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="15">
         <v>8.0</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="15" t="b">
+      <c r="C11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="20">
         <v>0.0</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="16">
+      <c r="I11" s="19"/>
+      <c r="J11" s="18">
         <v>1.0</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="16">
+      <c r="K11" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="17">
         <v>10000.0</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="19"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1160,43 +1276,49 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="14">
+      <c r="A12" s="15">
         <v>9.0</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="15">
         <v>9.0</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="15" t="b">
+      <c r="C12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="20">
         <v>0.0</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="16">
+      <c r="I12" s="19"/>
+      <c r="J12" s="18">
         <v>1.0</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="K12" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1208,45 +1330,51 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="14">
+      <c r="A13" s="15">
         <v>10.0</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="15">
         <v>10.0</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="15" t="b">
+      <c r="C13" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="20">
         <v>0.0</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="16">
+      <c r="I13" s="22"/>
+      <c r="J13" s="18">
         <v>1.0</v>
       </c>
-      <c r="K13" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="21">
+      <c r="K13" s="17">
         <v>1.0</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="L13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="O13" s="22"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1258,14 +1386,16 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="22"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1285,14 +1415,16 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="G15" s="22"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1312,14 +1444,16 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="G16" s="22"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1339,14 +1473,16 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="G17" s="22"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1366,14 +1502,16 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="G18" s="22"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1393,14 +1531,16 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="G19" s="22"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1420,14 +1560,16 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="G20" s="22"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1447,14 +1589,16 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="G21" s="22"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1474,14 +1618,16 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="G22" s="22"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1501,14 +1647,16 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="G23" s="22"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1528,14 +1676,16 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="G24" s="22"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1555,14 +1705,16 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="G25" s="22"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1582,14 +1734,16 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="G26" s="22"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1609,14 +1763,16 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="G27" s="22"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1636,14 +1792,16 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="G28" s="22"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1663,14 +1821,16 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="G29" s="22"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1690,14 +1850,16 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="G30" s="22"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1717,14 +1879,16 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="G31" s="22"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1744,14 +1908,16 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="G32" s="22"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1771,14 +1937,16 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="G33" s="22"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1798,14 +1966,16 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="G34" s="22"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1825,14 +1995,16 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="G35" s="22"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1852,14 +2024,16 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="G36" s="22"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1879,14 +2053,16 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="G37" s="22"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1906,14 +2082,16 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="G38" s="22"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1933,14 +2111,16 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="G39" s="22"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1960,14 +2140,16 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="G40" s="22"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1987,14 +2169,16 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="G41" s="22"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2014,14 +2198,16 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="G42" s="22"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2041,14 +2227,16 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="G43" s="22"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2068,14 +2256,16 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="G44" s="22"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2095,14 +2285,16 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="G45" s="22"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="G45" s="24"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2122,14 +2314,16 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="G46" s="22"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="G46" s="24"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2149,14 +2343,16 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="G47" s="22"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="G47" s="24"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2176,14 +2372,16 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="G48" s="22"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="G48" s="24"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2203,14 +2401,16 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="G49" s="22"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="G49" s="24"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2230,14 +2430,16 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="G50" s="22"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="G50" s="24"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2257,14 +2459,16 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="G51" s="22"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="G51" s="24"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2284,14 +2488,16 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="G52" s="22"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="G52" s="24"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2311,14 +2517,16 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="G53" s="22"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="G53" s="24"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2338,14 +2546,16 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="G54" s="22"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2365,14 +2575,16 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="G55" s="22"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="G55" s="24"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2392,14 +2604,16 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="G56" s="22"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="G56" s="24"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2419,14 +2633,16 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="G57" s="22"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="G57" s="24"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2446,14 +2662,16 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="G58" s="22"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="G58" s="24"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2473,14 +2691,16 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="G59" s="22"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="G59" s="24"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2500,14 +2720,16 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="G60" s="22"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="G60" s="24"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -2527,14 +2749,16 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="G61" s="22"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="G61" s="24"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -2554,14 +2778,16 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="G62" s="22"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="G62" s="24"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -2581,14 +2807,16 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="G63" s="22"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="G63" s="24"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -2608,14 +2836,16 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="G64" s="22"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="G64" s="24"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -2635,14 +2865,16 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="G65" s="22"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="G65" s="24"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -2662,14 +2894,16 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="G66" s="22"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="G66" s="24"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -2689,14 +2923,16 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="G67" s="22"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="G67" s="24"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -2716,14 +2952,16 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="G68" s="22"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="G68" s="24"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -2743,14 +2981,16 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="G69" s="22"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="G69" s="24"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -2770,14 +3010,16 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="G70" s="22"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="G70" s="24"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -2797,14 +3039,16 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="G71" s="22"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="G71" s="24"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -2824,14 +3068,16 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="G72" s="22"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="G72" s="24"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2851,14 +3097,16 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="G73" s="22"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="G73" s="24"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2878,14 +3126,16 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="G74" s="22"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="G74" s="24"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -2905,14 +3155,16 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="G75" s="22"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="G75" s="24"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -2932,14 +3184,16 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="G76" s="22"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="G76" s="24"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -2959,14 +3213,16 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="G77" s="22"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="G77" s="24"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -2986,14 +3242,16 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="G78" s="22"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="G78" s="24"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -3013,14 +3271,16 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="G79" s="22"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="G79" s="24"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -3040,14 +3300,16 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="G80" s="22"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="G80" s="24"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -3067,14 +3329,16 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="G81" s="22"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="G81" s="24"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -3094,14 +3358,16 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="G82" s="22"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="G82" s="24"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -3121,14 +3387,16 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="G83" s="22"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="G83" s="24"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -3148,14 +3416,16 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="G84" s="22"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="G84" s="24"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -3175,14 +3445,16 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="G85" s="22"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="G85" s="24"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -3202,14 +3474,16 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="G86" s="22"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="G86" s="24"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -3229,14 +3503,16 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="G87" s="22"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="G87" s="24"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -3256,14 +3532,16 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="G88" s="22"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="G88" s="24"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -3283,14 +3561,16 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="G89" s="22"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="G89" s="24"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -3310,14 +3590,16 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="G90" s="22"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="G90" s="24"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -3337,14 +3619,16 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="G91" s="22"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="G91" s="24"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -3364,14 +3648,16 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="G92" s="22"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="G92" s="24"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -3391,14 +3677,16 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="G93" s="22"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="G93" s="24"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -3418,14 +3706,16 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="G94" s="22"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="G94" s="24"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -3445,14 +3735,16 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="G95" s="22"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="G95" s="24"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -3472,14 +3764,16 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="G96" s="22"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="G96" s="24"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -3499,14 +3793,16 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="G97" s="22"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="G97" s="24"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -3526,14 +3822,16 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="G98" s="22"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="G98" s="24"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -3553,14 +3851,16 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="G99" s="22"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="G99" s="24"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -3580,14 +3880,16 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="G100" s="22"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="G100" s="24"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -3607,14 +3909,16 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="G101" s="22"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="G101" s="24"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -3634,14 +3938,16 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="G102" s="22"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="G102" s="24"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -3661,14 +3967,16 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="G103" s="22"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="G103" s="24"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -3688,14 +3996,16 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="G104" s="22"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="G104" s="24"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -3715,14 +4025,16 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="G105" s="22"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="G105" s="24"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -3742,14 +4054,16 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="G106" s="22"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="G106" s="24"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -3769,14 +4083,16 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="G107" s="22"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="G107" s="24"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -3796,14 +4112,16 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="G108" s="22"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="G108" s="24"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -3823,14 +4141,16 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="G109" s="22"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="G109" s="24"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -3850,14 +4170,16 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="G110" s="22"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="G110" s="24"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -3877,14 +4199,16 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="G111" s="22"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="G111" s="24"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -3904,14 +4228,16 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="G112" s="22"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="G112" s="24"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -3931,14 +4257,16 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="G113" s="22"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="G113" s="24"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -3958,14 +4286,16 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="G114" s="22"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="G114" s="24"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -3985,14 +4315,16 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+      <c r="AB114" s="1"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="G115" s="22"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="G115" s="24"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -4012,14 +4344,16 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+      <c r="AB115" s="1"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="G116" s="22"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="G116" s="24"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -4039,14 +4373,16 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="G117" s="22"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="G117" s="24"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -4066,14 +4402,16 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="G118" s="22"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="G118" s="24"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -4093,14 +4431,16 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="G119" s="22"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="G119" s="24"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -4120,14 +4460,16 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="G120" s="22"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="G120" s="24"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -4147,14 +4489,16 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="G121" s="22"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="G121" s="24"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -4174,14 +4518,16 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
+      <c r="AA121" s="1"/>
+      <c r="AB121" s="1"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="G122" s="22"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="G122" s="24"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -4201,14 +4547,16 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
+      <c r="AA122" s="1"/>
+      <c r="AB122" s="1"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="G123" s="22"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="G123" s="24"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -4228,14 +4576,16 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="G124" s="22"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="G124" s="24"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -4255,14 +4605,16 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
+      <c r="AA124" s="1"/>
+      <c r="AB124" s="1"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="G125" s="22"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="G125" s="24"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -4282,14 +4634,16 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
+      <c r="AA125" s="1"/>
+      <c r="AB125" s="1"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="G126" s="22"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="G126" s="24"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -4309,14 +4663,16 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
+      <c r="AA126" s="1"/>
+      <c r="AB126" s="1"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="G127" s="22"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="G127" s="24"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -4336,14 +4692,16 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
+      <c r="AA127" s="1"/>
+      <c r="AB127" s="1"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="G128" s="22"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="G128" s="24"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -4363,14 +4721,16 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
+      <c r="AA128" s="1"/>
+      <c r="AB128" s="1"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="G129" s="22"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="G129" s="24"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -4390,14 +4750,16 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
+      <c r="AA129" s="1"/>
+      <c r="AB129" s="1"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="G130" s="22"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="G130" s="24"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -4417,14 +4779,16 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
+      <c r="AA130" s="1"/>
+      <c r="AB130" s="1"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="G131" s="22"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="G131" s="24"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -4444,14 +4808,16 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
+      <c r="AA131" s="1"/>
+      <c r="AB131" s="1"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="G132" s="22"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="G132" s="24"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -4471,14 +4837,16 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
+      <c r="AA132" s="1"/>
+      <c r="AB132" s="1"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="G133" s="22"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="G133" s="24"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -4498,14 +4866,16 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
+      <c r="AA133" s="1"/>
+      <c r="AB133" s="1"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="G134" s="22"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="G134" s="24"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -4525,14 +4895,16 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
+      <c r="AA134" s="1"/>
+      <c r="AB134" s="1"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="G135" s="22"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="G135" s="24"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -4552,14 +4924,16 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
+      <c r="AA135" s="1"/>
+      <c r="AB135" s="1"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="G136" s="22"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="G136" s="24"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -4579,14 +4953,16 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
+      <c r="AA136" s="1"/>
+      <c r="AB136" s="1"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="G137" s="22"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="G137" s="24"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -4606,14 +4982,16 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
+      <c r="AA137" s="1"/>
+      <c r="AB137" s="1"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="G138" s="22"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="G138" s="24"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -4633,14 +5011,16 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
+      <c r="AA138" s="1"/>
+      <c r="AB138" s="1"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="G139" s="22"/>
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="G139" s="24"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -4660,14 +5040,16 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
+      <c r="AA139" s="1"/>
+      <c r="AB139" s="1"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="G140" s="22"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="G140" s="24"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -4687,14 +5069,16 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
+      <c r="AA140" s="1"/>
+      <c r="AB140" s="1"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="G141" s="22"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="G141" s="24"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -4714,14 +5098,16 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
+      <c r="AA141" s="1"/>
+      <c r="AB141" s="1"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="G142" s="22"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="G142" s="24"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -4741,14 +5127,16 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
+      <c r="AA142" s="1"/>
+      <c r="AB142" s="1"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="G143" s="22"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="G143" s="24"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -4768,14 +5156,16 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
+      <c r="AA143" s="1"/>
+      <c r="AB143" s="1"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="G144" s="22"/>
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="G144" s="24"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -4795,14 +5185,16 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
+      <c r="AA144" s="1"/>
+      <c r="AB144" s="1"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="G145" s="22"/>
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="G145" s="24"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -4822,14 +5214,16 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
+      <c r="AA145" s="1"/>
+      <c r="AB145" s="1"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="G146" s="22"/>
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="G146" s="24"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -4849,14 +5243,16 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
+      <c r="AA146" s="1"/>
+      <c r="AB146" s="1"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="G147" s="22"/>
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="G147" s="24"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -4876,14 +5272,16 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
+      <c r="AA147" s="1"/>
+      <c r="AB147" s="1"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="G148" s="22"/>
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="G148" s="24"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -4903,14 +5301,16 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
+      <c r="AA148" s="1"/>
+      <c r="AB148" s="1"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="G149" s="22"/>
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="G149" s="24"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -4930,14 +5330,16 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
+      <c r="AA149" s="1"/>
+      <c r="AB149" s="1"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="G150" s="22"/>
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="G150" s="24"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -4957,14 +5359,16 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
+      <c r="AA150" s="1"/>
+      <c r="AB150" s="1"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="G151" s="22"/>
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="G151" s="24"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -4984,14 +5388,16 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
+      <c r="AA151" s="1"/>
+      <c r="AB151" s="1"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="G152" s="22"/>
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="G152" s="24"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -5011,14 +5417,16 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
+      <c r="AA152" s="1"/>
+      <c r="AB152" s="1"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="G153" s="22"/>
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="G153" s="24"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -5038,14 +5446,16 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
+      <c r="AA153" s="1"/>
+      <c r="AB153" s="1"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="G154" s="22"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="G154" s="24"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -5065,14 +5475,16 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
+      <c r="AA154" s="1"/>
+      <c r="AB154" s="1"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="G155" s="22"/>
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="G155" s="24"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -5092,14 +5504,16 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
+      <c r="AA155" s="1"/>
+      <c r="AB155" s="1"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="G156" s="22"/>
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="G156" s="24"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -5119,14 +5533,16 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
+      <c r="AA156" s="1"/>
+      <c r="AB156" s="1"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="G157" s="22"/>
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="G157" s="24"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -5146,14 +5562,16 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
+      <c r="AA157" s="1"/>
+      <c r="AB157" s="1"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="G158" s="22"/>
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="G158" s="24"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -5173,14 +5591,16 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
+      <c r="AA158" s="1"/>
+      <c r="AB158" s="1"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="G159" s="22"/>
+      <c r="A159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="G159" s="24"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -5200,14 +5620,16 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
+      <c r="AA159" s="1"/>
+      <c r="AB159" s="1"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="G160" s="22"/>
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="G160" s="24"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -5227,14 +5649,16 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
+      <c r="AA160" s="1"/>
+      <c r="AB160" s="1"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="G161" s="22"/>
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="G161" s="24"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -5254,14 +5678,16 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
+      <c r="AA161" s="1"/>
+      <c r="AB161" s="1"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="G162" s="22"/>
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="G162" s="24"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -5281,14 +5707,16 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
+      <c r="AA162" s="1"/>
+      <c r="AB162" s="1"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="G163" s="22"/>
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="G163" s="24"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -5308,14 +5736,16 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
+      <c r="AA163" s="1"/>
+      <c r="AB163" s="1"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="G164" s="22"/>
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="G164" s="24"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -5335,14 +5765,16 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
+      <c r="AA164" s="1"/>
+      <c r="AB164" s="1"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="G165" s="22"/>
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="G165" s="24"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -5362,14 +5794,16 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
+      <c r="AA165" s="1"/>
+      <c r="AB165" s="1"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="G166" s="22"/>
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="G166" s="24"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -5389,14 +5823,16 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
+      <c r="AA166" s="1"/>
+      <c r="AB166" s="1"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="G167" s="22"/>
+      <c r="A167" s="6"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="G167" s="24"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -5416,14 +5852,16 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
+      <c r="AA167" s="1"/>
+      <c r="AB167" s="1"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="G168" s="22"/>
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="G168" s="24"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -5443,14 +5881,16 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
+      <c r="AA168" s="1"/>
+      <c r="AB168" s="1"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="G169" s="22"/>
+      <c r="A169" s="6"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="G169" s="24"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -5470,14 +5910,16 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
+      <c r="AA169" s="1"/>
+      <c r="AB169" s="1"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="G170" s="22"/>
+      <c r="A170" s="6"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="G170" s="24"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -5497,14 +5939,16 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
+      <c r="AA170" s="1"/>
+      <c r="AB170" s="1"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="G171" s="22"/>
+      <c r="A171" s="6"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="G171" s="24"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -5524,14 +5968,16 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
+      <c r="AA171" s="1"/>
+      <c r="AB171" s="1"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="G172" s="22"/>
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="G172" s="24"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -5551,14 +5997,16 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
+      <c r="AA172" s="1"/>
+      <c r="AB172" s="1"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="G173" s="22"/>
+      <c r="A173" s="6"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="G173" s="24"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -5578,14 +6026,16 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
+      <c r="AA173" s="1"/>
+      <c r="AB173" s="1"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="G174" s="22"/>
+      <c r="A174" s="6"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="G174" s="24"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -5605,14 +6055,16 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
+      <c r="AA174" s="1"/>
+      <c r="AB174" s="1"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="G175" s="22"/>
+      <c r="A175" s="6"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="G175" s="24"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -5632,14 +6084,16 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
+      <c r="AA175" s="1"/>
+      <c r="AB175" s="1"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="G176" s="22"/>
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="G176" s="24"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -5659,14 +6113,16 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
+      <c r="AA176" s="1"/>
+      <c r="AB176" s="1"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="G177" s="22"/>
+      <c r="A177" s="6"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="G177" s="24"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -5686,14 +6142,16 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
+      <c r="AA177" s="1"/>
+      <c r="AB177" s="1"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="G178" s="22"/>
+      <c r="A178" s="6"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="G178" s="24"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -5713,14 +6171,16 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
+      <c r="AA178" s="1"/>
+      <c r="AB178" s="1"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="G179" s="22"/>
+      <c r="A179" s="6"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="G179" s="24"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -5740,14 +6200,16 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
+      <c r="AA179" s="1"/>
+      <c r="AB179" s="1"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="G180" s="22"/>
+      <c r="A180" s="6"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="G180" s="24"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -5767,14 +6229,16 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
+      <c r="AA180" s="1"/>
+      <c r="AB180" s="1"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="G181" s="22"/>
+      <c r="A181" s="6"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="G181" s="24"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -5794,14 +6258,16 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
+      <c r="AA181" s="1"/>
+      <c r="AB181" s="1"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="G182" s="22"/>
+      <c r="A182" s="6"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="G182" s="24"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -5821,14 +6287,16 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
+      <c r="AA182" s="1"/>
+      <c r="AB182" s="1"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="5"/>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="G183" s="22"/>
+      <c r="A183" s="6"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="G183" s="24"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -5848,14 +6316,16 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
+      <c r="AA183" s="1"/>
+      <c r="AB183" s="1"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="5"/>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="G184" s="22"/>
+      <c r="A184" s="6"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="G184" s="24"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -5875,14 +6345,16 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
+      <c r="AA184" s="1"/>
+      <c r="AB184" s="1"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="5"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="G185" s="22"/>
+      <c r="A185" s="6"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="G185" s="24"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -5902,14 +6374,16 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
+      <c r="AA185" s="1"/>
+      <c r="AB185" s="1"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="5"/>
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="G186" s="22"/>
+      <c r="A186" s="6"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="G186" s="24"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -5929,14 +6403,16 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
+      <c r="AA186" s="1"/>
+      <c r="AB186" s="1"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="G187" s="22"/>
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="G187" s="24"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -5956,14 +6432,16 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
+      <c r="AA187" s="1"/>
+      <c r="AB187" s="1"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="5"/>
-      <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="G188" s="22"/>
+      <c r="A188" s="6"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="G188" s="24"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -5983,14 +6461,16 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
+      <c r="AA188" s="1"/>
+      <c r="AB188" s="1"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="5"/>
-      <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="G189" s="22"/>
+      <c r="A189" s="6"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="G189" s="24"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -6010,14 +6490,16 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
+      <c r="AA189" s="1"/>
+      <c r="AB189" s="1"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="5"/>
-      <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="G190" s="22"/>
+      <c r="A190" s="6"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="G190" s="24"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -6037,14 +6519,16 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
+      <c r="AA190" s="1"/>
+      <c r="AB190" s="1"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="5"/>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="G191" s="22"/>
+      <c r="A191" s="6"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="G191" s="24"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -6064,14 +6548,16 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
+      <c r="AA191" s="1"/>
+      <c r="AB191" s="1"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="G192" s="22"/>
+      <c r="A192" s="6"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="G192" s="24"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -6091,14 +6577,16 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
+      <c r="AA192" s="1"/>
+      <c r="AB192" s="1"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="5"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="G193" s="22"/>
+      <c r="A193" s="6"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="G193" s="24"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -6118,14 +6606,16 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
+      <c r="AA193" s="1"/>
+      <c r="AB193" s="1"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="5"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="G194" s="22"/>
+      <c r="A194" s="6"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="G194" s="24"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -6145,14 +6635,16 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
+      <c r="AA194" s="1"/>
+      <c r="AB194" s="1"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="G195" s="22"/>
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="G195" s="24"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -6172,14 +6664,16 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
+      <c r="AA195" s="1"/>
+      <c r="AB195" s="1"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="G196" s="22"/>
+      <c r="A196" s="6"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="G196" s="24"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -6199,14 +6693,16 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
+      <c r="AA196" s="1"/>
+      <c r="AB196" s="1"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="G197" s="22"/>
+      <c r="A197" s="6"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="G197" s="24"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -6226,14 +6722,16 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
+      <c r="AA197" s="1"/>
+      <c r="AB197" s="1"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="5"/>
-      <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="G198" s="22"/>
+      <c r="A198" s="6"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="G198" s="24"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -6253,14 +6751,16 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
+      <c r="AA198" s="1"/>
+      <c r="AB198" s="1"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="G199" s="22"/>
+      <c r="A199" s="6"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="G199" s="24"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -6280,14 +6780,16 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
+      <c r="AA199" s="1"/>
+      <c r="AB199" s="1"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="5"/>
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="G200" s="22"/>
+      <c r="A200" s="6"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="G200" s="24"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -6307,14 +6809,16 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
+      <c r="AA200" s="1"/>
+      <c r="AB200" s="1"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="5"/>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="G201" s="22"/>
+      <c r="A201" s="6"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="G201" s="24"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -6334,14 +6838,16 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
+      <c r="AA201" s="1"/>
+      <c r="AB201" s="1"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="5"/>
-      <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="G202" s="22"/>
+      <c r="A202" s="6"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="G202" s="24"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -6361,14 +6867,16 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
+      <c r="AA202" s="1"/>
+      <c r="AB202" s="1"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="5"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="G203" s="22"/>
+      <c r="A203" s="6"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="G203" s="24"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -6388,14 +6896,16 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
+      <c r="AA203" s="1"/>
+      <c r="AB203" s="1"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="5"/>
-      <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
-      <c r="G204" s="22"/>
+      <c r="A204" s="6"/>
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="G204" s="24"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -6415,14 +6925,16 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
+      <c r="AA204" s="1"/>
+      <c r="AB204" s="1"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="5"/>
-      <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="G205" s="22"/>
+      <c r="A205" s="6"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="G205" s="24"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -6442,14 +6954,16 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
+      <c r="AA205" s="1"/>
+      <c r="AB205" s="1"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="5"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="G206" s="22"/>
+      <c r="A206" s="6"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="G206" s="24"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -6469,14 +6983,16 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
+      <c r="AA206" s="1"/>
+      <c r="AB206" s="1"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="5"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="G207" s="22"/>
+      <c r="A207" s="6"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="G207" s="24"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -6496,14 +7012,16 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
+      <c r="AA207" s="1"/>
+      <c r="AB207" s="1"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="5"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="G208" s="22"/>
+      <c r="A208" s="6"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="G208" s="24"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
@@ -6523,14 +7041,16 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
+      <c r="AA208" s="1"/>
+      <c r="AB208" s="1"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="5"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="G209" s="22"/>
+      <c r="A209" s="6"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="G209" s="24"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
@@ -6550,14 +7070,16 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
+      <c r="AA209" s="1"/>
+      <c r="AB209" s="1"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="G210" s="22"/>
+      <c r="A210" s="6"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="G210" s="24"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
@@ -6577,14 +7099,16 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
+      <c r="AA210" s="1"/>
+      <c r="AB210" s="1"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="G211" s="22"/>
+      <c r="A211" s="6"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="G211" s="24"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
@@ -6604,14 +7128,16 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
+      <c r="AA211" s="1"/>
+      <c r="AB211" s="1"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="G212" s="22"/>
+      <c r="A212" s="6"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="G212" s="24"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -6631,14 +7157,16 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
+      <c r="AA212" s="1"/>
+      <c r="AB212" s="1"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="G213" s="22"/>
+      <c r="A213" s="6"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="G213" s="24"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
@@ -6658,14 +7186,16 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
+      <c r="AA213" s="1"/>
+      <c r="AB213" s="1"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="G214" s="22"/>
+      <c r="A214" s="6"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="G214" s="24"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
@@ -6685,14 +7215,16 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
+      <c r="AA214" s="1"/>
+      <c r="AB214" s="1"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="G215" s="22"/>
+      <c r="A215" s="6"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="G215" s="24"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
@@ -6712,14 +7244,16 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
+      <c r="AA215" s="1"/>
+      <c r="AB215" s="1"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-      <c r="G216" s="22"/>
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="G216" s="24"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -6739,14 +7273,16 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
+      <c r="AA216" s="1"/>
+      <c r="AB216" s="1"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="G217" s="22"/>
+      <c r="A217" s="6"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="G217" s="24"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -6766,14 +7302,16 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
+      <c r="AA217" s="1"/>
+      <c r="AB217" s="1"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="G218" s="22"/>
+      <c r="A218" s="6"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="G218" s="24"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -6793,14 +7331,16 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
+      <c r="AA218" s="1"/>
+      <c r="AB218" s="1"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="G219" s="22"/>
+      <c r="A219" s="6"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+      <c r="G219" s="24"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -6820,14 +7360,16 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
+      <c r="AA219" s="1"/>
+      <c r="AB219" s="1"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="G220" s="22"/>
+      <c r="A220" s="6"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="G220" s="24"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -6847,6 +7389,8 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
+      <c r="AA220" s="1"/>
+      <c r="AB220" s="1"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/Src/Data/Tables/ItemDefine.xlsx
+++ b/Src/Data/Tables/ItemDefine.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="180">
   <si>
     <t>描述</t>
   </si>
@@ -22,6 +22,12 @@
     <t>分类</t>
   </si>
   <si>
+    <t>道具等级</t>
+  </si>
+  <si>
+    <t>职业</t>
+  </si>
+  <si>
     <t>使用CD(s)</t>
   </si>
   <si>
@@ -76,6 +82,12 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
     <t>Usability</t>
   </si>
   <si>
@@ -233,6 +245,312 @@
   </si>
   <si>
     <t>AddSkillPoint</t>
+  </si>
+  <si>
+    <t>Iron Sword</t>
+  </si>
+  <si>
+    <t>“Made with finely polished Iron”</t>
+  </si>
+  <si>
+    <t>EQUIP</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>WARRIOR</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1001</t>
+  </si>
+  <si>
+    <t>Iron Shield</t>
+  </si>
+  <si>
+    <t>“Made with finely polished Iron(Not Entirely)”</t>
+  </si>
+  <si>
+    <t>Accessory</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1002</t>
+  </si>
+  <si>
+    <t>Iron Helmet</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1003</t>
+  </si>
+  <si>
+    <t>Iron Chest Plate</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1004</t>
+  </si>
+  <si>
+    <t>Iron Pauldron</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1005</t>
+  </si>
+  <si>
+    <t>Iron Legplates</t>
+  </si>
+  <si>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1006</t>
+  </si>
+  <si>
+    <t>Iron Warboots</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1007</t>
+  </si>
+  <si>
+    <t>Wand</t>
+  </si>
+  <si>
+    <t>“Just a wooden wand”</t>
+  </si>
+  <si>
+    <t>WIZARD</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2001</t>
+  </si>
+  <si>
+    <t>Leather Grimoire</t>
+  </si>
+  <si>
+    <t>“Made with finely selected leather”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2002</t>
+  </si>
+  <si>
+    <t>Leather Scarf</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2003</t>
+  </si>
+  <si>
+    <t>Leather Cloak</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2004</t>
+  </si>
+  <si>
+    <t>Leather Spaulder</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2005</t>
+  </si>
+  <si>
+    <t>Leather Pants</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2006</t>
+  </si>
+  <si>
+    <t>Leather Boots</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2007</t>
+  </si>
+  <si>
+    <t>Wooden Bow</t>
+  </si>
+  <si>
+    <t>“Won't easily break”</t>
+  </si>
+  <si>
+    <t>ARCHER</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3001</t>
+  </si>
+  <si>
+    <t>Leather Quiver</t>
+  </si>
+  <si>
+    <t>“Leathered...”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3002</t>
+  </si>
+  <si>
+    <t>Leather Hat</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3003</t>
+  </si>
+  <si>
+    <t>Leather Vest</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3004</t>
+  </si>
+  <si>
+    <t>Leather Shoulders</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3005</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3006</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3007</t>
+  </si>
+  <si>
+    <t>Star Blade</t>
+  </si>
+  <si>
+    <t>“You can feel overwalming power of star from it”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1011</t>
+  </si>
+  <si>
+    <t>Star Shield</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1012</t>
+  </si>
+  <si>
+    <t>Star Helm</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1013</t>
+  </si>
+  <si>
+    <t>Star Armor</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1014</t>
+  </si>
+  <si>
+    <t>Star Pauldron</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1015</t>
+  </si>
+  <si>
+    <t>Star Kneepad</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1016</t>
+  </si>
+  <si>
+    <t>Star Boots</t>
+  </si>
+  <si>
+    <t>“Hot as if burning like sun”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1017</t>
+  </si>
+  <si>
+    <t>Solar Wand</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2011</t>
+  </si>
+  <si>
+    <t>Solar Shield</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2012</t>
+  </si>
+  <si>
+    <t>Solar Helm</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2013</t>
+  </si>
+  <si>
+    <t>Solar Armor</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2014</t>
+  </si>
+  <si>
+    <t>Solar Pauldron</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2015</t>
+  </si>
+  <si>
+    <t>Solar Kneepad</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2016</t>
+  </si>
+  <si>
+    <t>Solar Boots</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2017</t>
+  </si>
+  <si>
+    <t>Lunar Bow</t>
+  </si>
+  <si>
+    <t>“Filled with lunar power”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3011</t>
+  </si>
+  <si>
+    <t>Lunar Shield</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3012</t>
+  </si>
+  <si>
+    <t>Lunar Helm</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3013</t>
+  </si>
+  <si>
+    <t>Lunar Armor</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3014</t>
+  </si>
+  <si>
+    <t>Lunar Pauldron</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3015</t>
+  </si>
+  <si>
+    <t>Lunar Kneepad</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3016</t>
+  </si>
+  <si>
+    <t>Lunar Boots</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3017</t>
   </si>
 </sst>
 </file>
@@ -251,10 +569,6 @@
       <name val="Microsoft Yahei"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <name val="Microsoft Yahei"/>
-    </font>
-    <font>
       <b/>
       <sz val="9.0"/>
       <color theme="0"/>
@@ -268,12 +582,16 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="&quot;Microsoft Yahei&quot;"/>
     </font>
   </fonts>
   <fills count="4">
@@ -302,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -312,13 +630,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -330,22 +645,22 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -354,28 +669,48 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -424,23 +759,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:O13" displayName="Table_1" id="1">
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:Q55" displayName="Table_1" id="1">
+  <tableColumns count="17">
     <tableColumn name="Key" id="1"/>
     <tableColumn name="ID" id="2"/>
     <tableColumn name="Name" id="3"/>
     <tableColumn name="Description" id="4"/>
     <tableColumn name="Type" id="5"/>
     <tableColumn name="Category" id="6"/>
-    <tableColumn name="Usability" id="7"/>
-    <tableColumn name="CD" id="8"/>
-    <tableColumn name="Price" id="9"/>
-    <tableColumn name="SellPrice" id="10"/>
-    <tableColumn name="StackLimit" id="11"/>
-    <tableColumn name="Icon" id="12"/>
-    <tableColumn name="Function" id="13"/>
-    <tableColumn name="Param" id="14"/>
-    <tableColumn name="Params" id="15"/>
+    <tableColumn name="Level" id="7"/>
+    <tableColumn name="Class" id="8"/>
+    <tableColumn name="Usability" id="9"/>
+    <tableColumn name="CD" id="10"/>
+    <tableColumn name="Price" id="11"/>
+    <tableColumn name="SellPrice" id="12"/>
+    <tableColumn name="StackLimit" id="13"/>
+    <tableColumn name="Icon" id="14"/>
+    <tableColumn name="Function" id="15"/>
+    <tableColumn name="Param" id="16"/>
+    <tableColumn name="Params" id="17"/>
   </tableColumns>
   <tableStyleInfo name="Elements-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -655,12 +992,12 @@
     <col customWidth="1" min="4" max="4" width="37.71"/>
     <col customWidth="1" min="5" max="5" width="14.43"/>
     <col customWidth="1" min="6" max="6" width="15.14"/>
-    <col customWidth="1" min="7" max="7" width="13.71"/>
-    <col customWidth="1" min="8" max="10" width="16.29"/>
-    <col customWidth="1" min="11" max="11" width="10.71"/>
-    <col customWidth="1" min="12" max="12" width="33.14"/>
-    <col customWidth="1" min="13" max="13" width="23.43"/>
-    <col customWidth="1" min="14" max="28" width="16.29"/>
+    <col customWidth="1" min="7" max="9" width="13.71"/>
+    <col customWidth="1" min="10" max="12" width="16.29"/>
+    <col customWidth="1" min="13" max="13" width="10.71"/>
+    <col customWidth="1" min="14" max="14" width="33.14"/>
+    <col customWidth="1" min="15" max="15" width="23.43"/>
+    <col customWidth="1" min="16" max="30" width="16.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -676,14 +1013,14 @@
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -698,9 +1035,13 @@
       <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="4"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -712,53 +1053,59 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>11</v>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -770,55 +1117,61 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="L3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="N3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -830,53 +1183,57 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>1.0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>1.0</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="16" t="b">
+      <c r="C4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="16">
+      <c r="J4" s="15">
         <v>1.0</v>
       </c>
-      <c r="I4" s="17">
+      <c r="K4" s="16">
         <v>200.0</v>
       </c>
-      <c r="J4" s="18">
+      <c r="L4" s="16">
         <v>100.0</v>
       </c>
-      <c r="K4" s="17">
+      <c r="M4" s="16">
         <v>99.0</v>
       </c>
-      <c r="L4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="17">
+      <c r="N4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="16">
         <v>500.0</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -888,53 +1245,57 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>2.0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>2.0</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="16" t="b">
+      <c r="G5" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="15">
+      <c r="J5" s="14">
         <v>1.0</v>
       </c>
-      <c r="I5" s="17">
+      <c r="K5" s="16">
         <v>200.0</v>
       </c>
-      <c r="J5" s="18">
+      <c r="L5" s="16">
         <v>100.0</v>
       </c>
-      <c r="K5" s="17">
+      <c r="M5" s="16">
         <v>99.0</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="17">
+      <c r="N5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="16">
         <v>500.0</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="18"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -946,53 +1307,57 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>3.0</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>3.0</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="16" t="b">
+      <c r="C6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="20">
+      <c r="J6" s="19">
         <v>5.0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="K6" s="16">
         <v>200.0</v>
       </c>
-      <c r="J6" s="18">
+      <c r="L6" s="16">
         <v>100.0</v>
       </c>
-      <c r="K6" s="17">
+      <c r="M6" s="16">
         <v>99.0</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="17">
+      <c r="N6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="16">
         <v>1.0</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="18"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1004,53 +1369,57 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>4.0</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>4.0</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="16" t="b">
+      <c r="G7" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="20">
+      <c r="J7" s="19">
         <v>5.0</v>
       </c>
-      <c r="I7" s="17">
+      <c r="K7" s="16">
         <v>200.0</v>
       </c>
-      <c r="J7" s="18">
+      <c r="L7" s="16">
         <v>100.0</v>
       </c>
-      <c r="K7" s="17">
+      <c r="M7" s="16">
         <v>99.0</v>
       </c>
-      <c r="L7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="19">
+      <c r="N7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="18">
         <v>2.0</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1062,49 +1431,53 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>5.0</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>5.0</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="16" t="b">
+      <c r="C8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="20">
+      <c r="J8" s="19">
         <v>0.0</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="18">
+      <c r="K8" s="18"/>
+      <c r="L8" s="16">
         <v>1.0</v>
       </c>
-      <c r="K8" s="17">
+      <c r="M8" s="16">
         <v>1.0</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="N8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1116,47 +1489,51 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>6.0</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>6.0</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="16" t="b">
+      <c r="C9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="20">
+      <c r="J9" s="19">
         <v>0.0</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="18">
+      <c r="K9" s="18"/>
+      <c r="L9" s="16">
         <v>1.0</v>
       </c>
-      <c r="K9" s="17">
+      <c r="M9" s="16">
         <v>99.0</v>
       </c>
-      <c r="L9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="N9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1168,49 +1545,53 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>7.0</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>7.0</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="20">
+      <c r="C10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="19">
         <v>0.0</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18">
+      <c r="K10" s="18"/>
+      <c r="L10" s="16">
         <v>1.0</v>
       </c>
-      <c r="K10" s="17">
+      <c r="M10" s="16">
         <v>1.0</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="17">
+      <c r="N10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="16">
         <v>1000.0</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1222,51 +1603,55 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>8.0</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>8.0</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="16" t="b">
+      <c r="G11" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="20">
+      <c r="J11" s="19">
         <v>0.0</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="18">
+      <c r="K11" s="18"/>
+      <c r="L11" s="16">
         <v>1.0</v>
       </c>
-      <c r="K11" s="17">
+      <c r="M11" s="16">
         <v>1.0</v>
       </c>
-      <c r="L11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="17">
+      <c r="N11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="16">
         <v>10000.0</v>
       </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="18"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1278,49 +1663,53 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>9.0</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>9.0</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="16" t="b">
+      <c r="C12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="20">
+      <c r="J12" s="19">
         <v>0.0</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="18">
+      <c r="K12" s="18"/>
+      <c r="L12" s="16">
         <v>1.0</v>
       </c>
-      <c r="K12" s="17">
+      <c r="M12" s="16">
         <v>1.0</v>
       </c>
-      <c r="L12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="N12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1332,51 +1721,55 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>10.0</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>10.0</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="16" t="b">
+      <c r="C13" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="20">
+      <c r="J13" s="19">
         <v>0.0</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="18">
+      <c r="K13" s="21"/>
+      <c r="L13" s="16">
         <v>1.0</v>
       </c>
-      <c r="K13" s="17">
+      <c r="M13" s="16">
         <v>1.0</v>
       </c>
-      <c r="L13" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="N13" s="23">
+      <c r="N13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="22">
         <v>1.0</v>
       </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="21"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1388,24 +1781,49 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="A14" s="23">
+        <v>1001.0</v>
+      </c>
+      <c r="B14" s="23">
+        <v>1001.0</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="M14" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -1417,24 +1835,49 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="A15" s="23">
+        <v>1002.0</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1002.0</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="M15" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="26"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="28"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1446,24 +1889,49 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="A16" s="23">
+        <v>1003.0</v>
+      </c>
+      <c r="B16" s="23">
+        <v>1003.0</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="M16" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="28"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1475,24 +1943,49 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="A17" s="23">
+        <v>1004.0</v>
+      </c>
+      <c r="B17" s="23">
+        <v>1004.0</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="M17" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="26"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1504,24 +1997,49 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="A18" s="23">
+        <v>1005.0</v>
+      </c>
+      <c r="B18" s="23">
+        <v>1005.0</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="M18" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="26"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -1533,24 +2051,49 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="A19" s="23">
+        <v>1006.0</v>
+      </c>
+      <c r="B19" s="23">
+        <v>1006.0</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="M19" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="O19" s="30"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -1562,24 +2105,49 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="A20" s="23">
+        <v>1007.0</v>
+      </c>
+      <c r="B20" s="23">
+        <v>1007.0</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="M20" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -1591,24 +2159,49 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="A21" s="23">
+        <v>2001.0</v>
+      </c>
+      <c r="B21" s="23">
+        <v>2001.0</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="M21" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="28"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -1620,24 +2213,49 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="A22" s="23">
+        <v>2002.0</v>
+      </c>
+      <c r="B22" s="23">
+        <v>2002.0</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="M22" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -1649,24 +2267,49 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="A23" s="23">
+        <v>2003.0</v>
+      </c>
+      <c r="B23" s="23">
+        <v>2003.0</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="M23" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O23" s="26"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="28"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -1678,24 +2321,49 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="A24" s="30">
+        <v>2004.0</v>
+      </c>
+      <c r="B24" s="30">
+        <v>2004.0</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M24" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" s="30"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -1707,24 +2375,49 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="A25" s="30">
+        <v>2005.0</v>
+      </c>
+      <c r="B25" s="30">
+        <v>2005.0</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M25" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="O25" s="30"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -1736,24 +2429,49 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="A26" s="30">
+        <v>2006.0</v>
+      </c>
+      <c r="B26" s="30">
+        <v>2006.0</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M26" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="O26" s="30"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -1765,24 +2483,49 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="A27" s="30">
+        <v>2007.0</v>
+      </c>
+      <c r="B27" s="30">
+        <v>2007.0</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M27" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="O27" s="30"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -1794,24 +2537,49 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="A28" s="30">
+        <v>3001.0</v>
+      </c>
+      <c r="B28" s="30">
+        <v>3001.0</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M28" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="O28" s="30"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -1823,24 +2591,49 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="A29" s="30">
+        <v>3002.0</v>
+      </c>
+      <c r="B29" s="30">
+        <v>3002.0</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M29" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="O29" s="30"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -1852,24 +2645,49 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="A30" s="30">
+        <v>3003.0</v>
+      </c>
+      <c r="B30" s="30">
+        <v>3003.0</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M30" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="O30" s="30"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -1881,24 +2699,49 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
+      <c r="A31" s="30">
+        <v>3004.0</v>
+      </c>
+      <c r="B31" s="30">
+        <v>3004.0</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M31" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="O31" s="30"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -1910,24 +2753,49 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="A32" s="30">
+        <v>3005.0</v>
+      </c>
+      <c r="B32" s="30">
+        <v>3005.0</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="O32" s="30"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -1939,24 +2807,49 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="A33" s="30">
+        <v>3006.0</v>
+      </c>
+      <c r="B33" s="30">
+        <v>3006.0</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="30"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M33" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="O33" s="30"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -1968,24 +2861,49 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="A34" s="30">
+        <v>3007.0</v>
+      </c>
+      <c r="B34" s="30">
+        <v>3007.0</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M34" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="O34" s="30"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -1997,24 +2915,49 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="A35" s="30">
+        <v>1011.0</v>
+      </c>
+      <c r="B35" s="30">
+        <v>1011.0</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M35" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O35" s="30"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -2026,24 +2969,49 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
+      <c r="A36" s="30">
+        <v>1012.0</v>
+      </c>
+      <c r="B36" s="30">
+        <v>1012.0</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M36" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="O36" s="30"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -2055,24 +3023,49 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="A37" s="30">
+        <v>1013.0</v>
+      </c>
+      <c r="B37" s="30">
+        <v>1013.0</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="30"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M37" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N37" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="O37" s="30"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -2084,24 +3077,49 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
+      <c r="A38" s="30">
+        <v>1014.0</v>
+      </c>
+      <c r="B38" s="30">
+        <v>1014.0</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="30"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M38" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="O38" s="30"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -2113,24 +3131,49 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="A39" s="30">
+        <v>1015.0</v>
+      </c>
+      <c r="B39" s="30">
+        <v>1015.0</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="30"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M39" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="O39" s="30"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -2142,24 +3185,49 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="A40" s="30">
+        <v>1016.0</v>
+      </c>
+      <c r="B40" s="30">
+        <v>1016.0</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="30"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M40" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="O40" s="30"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -2171,24 +3239,49 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="A41" s="30">
+        <v>1017.0</v>
+      </c>
+      <c r="B41" s="30">
+        <v>1017.0</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="30"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M41" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="O41" s="30"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -2200,24 +3293,49 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="A42" s="30">
+        <v>2011.0</v>
+      </c>
+      <c r="B42" s="30">
+        <v>2011.0</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="30"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M42" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="O42" s="30"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -2229,24 +3347,49 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="A43" s="30">
+        <v>2012.0</v>
+      </c>
+      <c r="B43" s="30">
+        <v>2012.0</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="30"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M43" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="O43" s="30"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -2258,24 +3401,49 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="A44" s="30">
+        <v>2013.0</v>
+      </c>
+      <c r="B44" s="30">
+        <v>2013.0</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I44" s="30"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M44" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N44" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="O44" s="30"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -2287,24 +3455,49 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="A45" s="30">
+        <v>2014.0</v>
+      </c>
+      <c r="B45" s="30">
+        <v>2014.0</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I45" s="30"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M45" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="O45" s="30"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2316,24 +3509,49 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="A46" s="30">
+        <v>2015.0</v>
+      </c>
+      <c r="B46" s="30">
+        <v>2015.0</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46" s="30"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M46" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N46" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="O46" s="30"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -2345,24 +3563,49 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="A47" s="30">
+        <v>2016.0</v>
+      </c>
+      <c r="B47" s="30">
+        <v>2016.0</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47" s="30"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M47" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N47" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="O47" s="30"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -2374,24 +3617,49 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
+      <c r="A48" s="30">
+        <v>2017.0</v>
+      </c>
+      <c r="B48" s="30">
+        <v>2017.0</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" s="30"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M48" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="O48" s="30"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -2403,24 +3671,49 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
+      <c r="A49" s="30">
+        <v>3011.0</v>
+      </c>
+      <c r="B49" s="30">
+        <v>3011.0</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49" s="30"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M49" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N49" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="O49" s="30"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -2432,24 +3725,49 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="A50" s="30">
+        <v>3012.0</v>
+      </c>
+      <c r="B50" s="30">
+        <v>3012.0</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I50" s="30"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M50" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="O50" s="30"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -2461,24 +3779,49 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
+      <c r="A51" s="30">
+        <v>3013.0</v>
+      </c>
+      <c r="B51" s="30">
+        <v>3013.0</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I51" s="30"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M51" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N51" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="O51" s="30"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -2490,24 +3833,49 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
+      <c r="A52" s="30">
+        <v>3014.0</v>
+      </c>
+      <c r="B52" s="30">
+        <v>3014.0</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I52" s="30"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M52" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N52" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="O52" s="30"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -2519,24 +3887,49 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
+      <c r="A53" s="30">
+        <v>3015.0</v>
+      </c>
+      <c r="B53" s="30">
+        <v>3015.0</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" s="30"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M53" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N53" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="O53" s="30"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -2548,24 +3941,49 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
+      <c r="A54" s="30">
+        <v>3016.0</v>
+      </c>
+      <c r="B54" s="30">
+        <v>3016.0</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" s="30"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M54" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N54" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="O54" s="30"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -2577,24 +3995,49 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
+      <c r="A55" s="30">
+        <v>3017.0</v>
+      </c>
+      <c r="B55" s="30">
+        <v>3017.0</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I55" s="30"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="M55" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N55" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="O55" s="30"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -2606,16 +4049,18 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -2635,16 +4080,18 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -2664,16 +4111,18 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -2693,16 +4142,18 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -2722,16 +4173,18 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -2751,16 +4204,18 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -2780,16 +4235,18 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -2809,16 +4266,18 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -2838,16 +4297,18 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -2867,16 +4328,18 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -2896,16 +4359,18 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -2925,16 +4390,18 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -2954,16 +4421,18 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -2983,16 +4452,18 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -3012,16 +4483,18 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -3041,16 +4514,18 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -3070,16 +4545,18 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -3099,16 +4576,18 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -3128,16 +4607,18 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -3157,16 +4638,18 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -3186,16 +4669,18 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -3215,16 +4700,18 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -3244,16 +4731,18 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -3273,16 +4762,18 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -3302,16 +4793,18 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -3331,16 +4824,18 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -3360,16 +4855,18 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -3389,16 +4886,18 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -3418,16 +4917,18 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -3447,16 +4948,18 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -3476,16 +4979,18 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -3505,16 +5010,18 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -3534,16 +5041,18 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -3563,16 +5072,18 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -3592,16 +5103,18 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -3621,16 +5134,18 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -3650,16 +5165,18 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -3679,16 +5196,18 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -3708,16 +5227,18 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -3737,16 +5258,18 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -3766,16 +5289,18 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -3795,16 +5320,18 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -3824,16 +5351,18 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -3853,16 +5382,18 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="31"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -3882,16 +5413,18 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -3911,16 +5444,18 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -3940,16 +5475,18 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -3969,16 +5506,18 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -3998,16 +5537,18 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -4027,16 +5568,18 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -4056,16 +5599,18 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="31"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -4085,16 +5630,18 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -4114,16 +5661,18 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="AD107" s="1"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -4143,16 +5692,18 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -4172,16 +5723,18 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -4201,16 +5754,18 @@
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
+      <c r="AC110" s="1"/>
+      <c r="AD110" s="1"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -4230,16 +5785,18 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -4259,16 +5816,18 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -4288,16 +5847,18 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
+      <c r="AC113" s="1"/>
+      <c r="AD113" s="1"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="31"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -4317,16 +5878,18 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
+      <c r="AC114" s="1"/>
+      <c r="AD114" s="1"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -4346,16 +5909,18 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
+      <c r="AC115" s="1"/>
+      <c r="AD115" s="1"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
+      <c r="I116" s="31"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -4375,16 +5940,18 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
+      <c r="AD116" s="1"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -4404,16 +5971,18 @@
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
+      <c r="AC117" s="1"/>
+      <c r="AD117" s="1"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -4433,16 +6002,18 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
+      <c r="AD118" s="1"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -4462,16 +6033,18 @@
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
+      <c r="AD119" s="1"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -4491,16 +6064,18 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+      <c r="AD120" s="1"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -4520,16 +6095,18 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
+      <c r="AC121" s="1"/>
+      <c r="AD121" s="1"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -4549,16 +6126,18 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
+      <c r="AC122" s="1"/>
+      <c r="AD122" s="1"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -4578,16 +6157,18 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
+      <c r="AC123" s="1"/>
+      <c r="AD123" s="1"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -4607,16 +6188,18 @@
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
+      <c r="AC124" s="1"/>
+      <c r="AD124" s="1"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -4636,16 +6219,18 @@
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
+      <c r="AC125" s="1"/>
+      <c r="AD125" s="1"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="31"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -4665,16 +6250,18 @@
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
+      <c r="AC126" s="1"/>
+      <c r="AD126" s="1"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="31"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -4694,16 +6281,18 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
+      <c r="AC127" s="1"/>
+      <c r="AD127" s="1"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -4723,16 +6312,18 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
+      <c r="AC128" s="1"/>
+      <c r="AD128" s="1"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="31"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -4752,16 +6343,18 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
+      <c r="AC129" s="1"/>
+      <c r="AD129" s="1"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="31"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -4781,16 +6374,18 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
+      <c r="AC130" s="1"/>
+      <c r="AD130" s="1"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="31"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -4810,16 +6405,18 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
+      <c r="AC131" s="1"/>
+      <c r="AD131" s="1"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="31"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -4839,16 +6436,18 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
+      <c r="AC132" s="1"/>
+      <c r="AD132" s="1"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="31"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -4868,16 +6467,18 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
+      <c r="AC133" s="1"/>
+      <c r="AD133" s="1"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="31"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -4897,16 +6498,18 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
+      <c r="AC134" s="1"/>
+      <c r="AD134" s="1"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="31"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -4926,16 +6529,18 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
+      <c r="AC135" s="1"/>
+      <c r="AD135" s="1"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="31"/>
+      <c r="I136" s="31"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -4955,16 +6560,18 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
+      <c r="AC136" s="1"/>
+      <c r="AD136" s="1"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="G137" s="24"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
+      <c r="I137" s="31"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -4984,16 +6591,18 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
+      <c r="AC137" s="1"/>
+      <c r="AD137" s="1"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="G138" s="24"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="31"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -5013,16 +6622,18 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
+      <c r="AC138" s="1"/>
+      <c r="AD138" s="1"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="G139" s="24"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="31"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -5042,16 +6653,18 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
+      <c r="AC139" s="1"/>
+      <c r="AD139" s="1"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="G140" s="24"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31"/>
+      <c r="I140" s="31"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -5071,16 +6684,18 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
+      <c r="AC140" s="1"/>
+      <c r="AD140" s="1"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="31"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -5100,16 +6715,18 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
+      <c r="AC141" s="1"/>
+      <c r="AD141" s="1"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="G142" s="24"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="31"/>
+      <c r="I142" s="31"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -5129,16 +6746,18 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
+      <c r="AC142" s="1"/>
+      <c r="AD142" s="1"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
+      <c r="I143" s="31"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -5158,16 +6777,18 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
+      <c r="AC143" s="1"/>
+      <c r="AD143" s="1"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="31"/>
+      <c r="I144" s="31"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -5187,16 +6808,18 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
+      <c r="AC144" s="1"/>
+      <c r="AD144" s="1"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="G145" s="24"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="31"/>
+      <c r="I145" s="31"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -5216,16 +6839,18 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
+      <c r="AC145" s="1"/>
+      <c r="AD145" s="1"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="G146" s="24"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
+      <c r="I146" s="31"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -5245,16 +6870,18 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
+      <c r="AC146" s="1"/>
+      <c r="AD146" s="1"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="G147" s="24"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="31"/>
+      <c r="I147" s="31"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -5274,16 +6901,18 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
+      <c r="AC147" s="1"/>
+      <c r="AD147" s="1"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="31"/>
+      <c r="I148" s="31"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -5303,16 +6932,18 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
+      <c r="AC148" s="1"/>
+      <c r="AD148" s="1"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="G149" s="24"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="31"/>
+      <c r="I149" s="31"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -5332,16 +6963,18 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
+      <c r="AC149" s="1"/>
+      <c r="AD149" s="1"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="31"/>
+      <c r="I150" s="31"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -5361,16 +6994,18 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
+      <c r="AC150" s="1"/>
+      <c r="AD150" s="1"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="G151" s="24"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="31"/>
+      <c r="I151" s="31"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
@@ -5390,16 +7025,18 @@
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
+      <c r="AC151" s="1"/>
+      <c r="AD151" s="1"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="G152" s="24"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="31"/>
+      <c r="I152" s="31"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -5419,16 +7056,18 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
+      <c r="AC152" s="1"/>
+      <c r="AD152" s="1"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="G153" s="24"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="31"/>
+      <c r="I153" s="31"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
@@ -5448,16 +7087,18 @@
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
+      <c r="AC153" s="1"/>
+      <c r="AD153" s="1"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="G154" s="24"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="31"/>
+      <c r="I154" s="31"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -5477,16 +7118,18 @@
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
+      <c r="AC154" s="1"/>
+      <c r="AD154" s="1"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="G155" s="24"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="G155" s="31"/>
+      <c r="H155" s="31"/>
+      <c r="I155" s="31"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -5506,16 +7149,18 @@
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
+      <c r="AC155" s="1"/>
+      <c r="AD155" s="1"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="G156" s="24"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="G156" s="31"/>
+      <c r="H156" s="31"/>
+      <c r="I156" s="31"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -5535,16 +7180,18 @@
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
+      <c r="AC156" s="1"/>
+      <c r="AD156" s="1"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="G157" s="24"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="G157" s="31"/>
+      <c r="H157" s="31"/>
+      <c r="I157" s="31"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -5564,16 +7211,18 @@
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
+      <c r="AC157" s="1"/>
+      <c r="AD157" s="1"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="G158" s="24"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="G158" s="31"/>
+      <c r="H158" s="31"/>
+      <c r="I158" s="31"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -5593,16 +7242,18 @@
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
+      <c r="AC158" s="1"/>
+      <c r="AD158" s="1"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="G159" s="24"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="G159" s="31"/>
+      <c r="H159" s="31"/>
+      <c r="I159" s="31"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -5622,16 +7273,18 @@
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
+      <c r="AC159" s="1"/>
+      <c r="AD159" s="1"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="G160" s="24"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="G160" s="31"/>
+      <c r="H160" s="31"/>
+      <c r="I160" s="31"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
@@ -5651,16 +7304,18 @@
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
+      <c r="AC160" s="1"/>
+      <c r="AD160" s="1"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="G161" s="24"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="G161" s="31"/>
+      <c r="H161" s="31"/>
+      <c r="I161" s="31"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
@@ -5680,16 +7335,18 @@
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
+      <c r="AC161" s="1"/>
+      <c r="AD161" s="1"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="G162" s="24"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="G162" s="31"/>
+      <c r="H162" s="31"/>
+      <c r="I162" s="31"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
@@ -5709,16 +7366,18 @@
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
+      <c r="AC162" s="1"/>
+      <c r="AD162" s="1"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="G163" s="31"/>
+      <c r="H163" s="31"/>
+      <c r="I163" s="31"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
@@ -5738,16 +7397,18 @@
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
+      <c r="AC163" s="1"/>
+      <c r="AD163" s="1"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="G164" s="24"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="G164" s="31"/>
+      <c r="H164" s="31"/>
+      <c r="I164" s="31"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -5767,16 +7428,18 @@
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
+      <c r="AC164" s="1"/>
+      <c r="AD164" s="1"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
-      <c r="G165" s="24"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="G165" s="31"/>
+      <c r="H165" s="31"/>
+      <c r="I165" s="31"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
@@ -5796,16 +7459,18 @@
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
+      <c r="AC165" s="1"/>
+      <c r="AD165" s="1"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="G166" s="24"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="G166" s="31"/>
+      <c r="H166" s="31"/>
+      <c r="I166" s="31"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
@@ -5825,16 +7490,18 @@
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
+      <c r="AC166" s="1"/>
+      <c r="AD166" s="1"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-      <c r="G167" s="24"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="G167" s="31"/>
+      <c r="H167" s="31"/>
+      <c r="I167" s="31"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -5854,16 +7521,18 @@
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
+      <c r="AC167" s="1"/>
+      <c r="AD167" s="1"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="G168" s="24"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="G168" s="31"/>
+      <c r="H168" s="31"/>
+      <c r="I168" s="31"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -5883,16 +7552,18 @@
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
+      <c r="AC168" s="1"/>
+      <c r="AD168" s="1"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
-      <c r="G169" s="24"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="G169" s="31"/>
+      <c r="H169" s="31"/>
+      <c r="I169" s="31"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
@@ -5912,16 +7583,18 @@
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
+      <c r="AC169" s="1"/>
+      <c r="AD169" s="1"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="6"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
-      <c r="G170" s="24"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="G170" s="31"/>
+      <c r="H170" s="31"/>
+      <c r="I170" s="31"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
@@ -5941,16 +7614,18 @@
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
+      <c r="AC170" s="1"/>
+      <c r="AD170" s="1"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="G171" s="24"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="G171" s="31"/>
+      <c r="H171" s="31"/>
+      <c r="I171" s="31"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -5970,16 +7645,18 @@
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
+      <c r="AC171" s="1"/>
+      <c r="AD171" s="1"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="G172" s="24"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="G172" s="31"/>
+      <c r="H172" s="31"/>
+      <c r="I172" s="31"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
@@ -5999,16 +7676,18 @@
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
+      <c r="AC172" s="1"/>
+      <c r="AD172" s="1"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-      <c r="G173" s="24"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="G173" s="31"/>
+      <c r="H173" s="31"/>
+      <c r="I173" s="31"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -6028,16 +7707,18 @@
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
+      <c r="AC173" s="1"/>
+      <c r="AD173" s="1"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="G174" s="24"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="G174" s="31"/>
+      <c r="H174" s="31"/>
+      <c r="I174" s="31"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -6057,16 +7738,18 @@
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
+      <c r="AC174" s="1"/>
+      <c r="AD174" s="1"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="G175" s="24"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="G175" s="31"/>
+      <c r="H175" s="31"/>
+      <c r="I175" s="31"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
@@ -6086,16 +7769,18 @@
       <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
+      <c r="AC175" s="1"/>
+      <c r="AD175" s="1"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="G176" s="24"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="G176" s="31"/>
+      <c r="H176" s="31"/>
+      <c r="I176" s="31"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
@@ -6115,16 +7800,18 @@
       <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
+      <c r="AC176" s="1"/>
+      <c r="AD176" s="1"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="G177" s="24"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="G177" s="31"/>
+      <c r="H177" s="31"/>
+      <c r="I177" s="31"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
@@ -6144,16 +7831,18 @@
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
+      <c r="AC177" s="1"/>
+      <c r="AD177" s="1"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
-      <c r="G178" s="24"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="G178" s="31"/>
+      <c r="H178" s="31"/>
+      <c r="I178" s="31"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
@@ -6173,16 +7862,18 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
+      <c r="AC178" s="1"/>
+      <c r="AD178" s="1"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="G179" s="24"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="G179" s="31"/>
+      <c r="H179" s="31"/>
+      <c r="I179" s="31"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
@@ -6202,16 +7893,18 @@
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
+      <c r="AC179" s="1"/>
+      <c r="AD179" s="1"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="G180" s="24"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="G180" s="31"/>
+      <c r="H180" s="31"/>
+      <c r="I180" s="31"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
@@ -6231,16 +7924,18 @@
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
+      <c r="AC180" s="1"/>
+      <c r="AD180" s="1"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="G181" s="24"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="G181" s="31"/>
+      <c r="H181" s="31"/>
+      <c r="I181" s="31"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
@@ -6260,16 +7955,18 @@
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
+      <c r="AC181" s="1"/>
+      <c r="AD181" s="1"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="6"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-      <c r="G182" s="24"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="G182" s="31"/>
+      <c r="H182" s="31"/>
+      <c r="I182" s="31"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
@@ -6289,16 +7986,18 @@
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
+      <c r="AC182" s="1"/>
+      <c r="AD182" s="1"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
-      <c r="G183" s="24"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="G183" s="31"/>
+      <c r="H183" s="31"/>
+      <c r="I183" s="31"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
@@ -6318,16 +8017,18 @@
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
+      <c r="AC183" s="1"/>
+      <c r="AD183" s="1"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="G184" s="24"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="G184" s="31"/>
+      <c r="H184" s="31"/>
+      <c r="I184" s="31"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
@@ -6347,16 +8048,18 @@
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
+      <c r="AC184" s="1"/>
+      <c r="AD184" s="1"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="6"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-      <c r="G185" s="24"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="G185" s="31"/>
+      <c r="H185" s="31"/>
+      <c r="I185" s="31"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -6376,16 +8079,18 @@
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
+      <c r="AC185" s="1"/>
+      <c r="AD185" s="1"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="6"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-      <c r="G186" s="24"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="G186" s="31"/>
+      <c r="H186" s="31"/>
+      <c r="I186" s="31"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
@@ -6405,16 +8110,18 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
+      <c r="AC186" s="1"/>
+      <c r="AD186" s="1"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-      <c r="G187" s="24"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="G187" s="31"/>
+      <c r="H187" s="31"/>
+      <c r="I187" s="31"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
@@ -6434,16 +8141,18 @@
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
+      <c r="AC187" s="1"/>
+      <c r="AD187" s="1"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="6"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="G188" s="24"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="G188" s="31"/>
+      <c r="H188" s="31"/>
+      <c r="I188" s="31"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
@@ -6463,16 +8172,18 @@
       <c r="Z188" s="1"/>
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
+      <c r="AC188" s="1"/>
+      <c r="AD188" s="1"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="6"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
-      <c r="G189" s="24"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="G189" s="31"/>
+      <c r="H189" s="31"/>
+      <c r="I189" s="31"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
@@ -6492,16 +8203,18 @@
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
+      <c r="AC189" s="1"/>
+      <c r="AD189" s="1"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="6"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="G190" s="24"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="G190" s="31"/>
+      <c r="H190" s="31"/>
+      <c r="I190" s="31"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
@@ -6521,16 +8234,18 @@
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
+      <c r="AC190" s="1"/>
+      <c r="AD190" s="1"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-      <c r="G191" s="24"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="G191" s="31"/>
+      <c r="H191" s="31"/>
+      <c r="I191" s="31"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -6550,16 +8265,18 @@
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
+      <c r="AC191" s="1"/>
+      <c r="AD191" s="1"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="6"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-      <c r="G192" s="24"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="G192" s="31"/>
+      <c r="H192" s="31"/>
+      <c r="I192" s="31"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -6579,16 +8296,18 @@
       <c r="Z192" s="1"/>
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
+      <c r="AC192" s="1"/>
+      <c r="AD192" s="1"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="G193" s="24"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="G193" s="31"/>
+      <c r="H193" s="31"/>
+      <c r="I193" s="31"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
@@ -6608,16 +8327,18 @@
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
+      <c r="AC193" s="1"/>
+      <c r="AD193" s="1"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="6"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="G194" s="24"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="G194" s="31"/>
+      <c r="H194" s="31"/>
+      <c r="I194" s="31"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
@@ -6637,16 +8358,18 @@
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
+      <c r="AC194" s="1"/>
+      <c r="AD194" s="1"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="6"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="G195" s="24"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="G195" s="31"/>
+      <c r="H195" s="31"/>
+      <c r="I195" s="31"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
@@ -6666,16 +8389,18 @@
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
+      <c r="AC195" s="1"/>
+      <c r="AD195" s="1"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="6"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="G196" s="24"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="G196" s="31"/>
+      <c r="H196" s="31"/>
+      <c r="I196" s="31"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
@@ -6695,16 +8420,18 @@
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
+      <c r="AC196" s="1"/>
+      <c r="AD196" s="1"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
-      <c r="G197" s="24"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="G197" s="31"/>
+      <c r="H197" s="31"/>
+      <c r="I197" s="31"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
@@ -6724,16 +8451,18 @@
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
+      <c r="AC197" s="1"/>
+      <c r="AD197" s="1"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
-      <c r="G198" s="24"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="G198" s="31"/>
+      <c r="H198" s="31"/>
+      <c r="I198" s="31"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
@@ -6753,16 +8482,18 @@
       <c r="Z198" s="1"/>
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
+      <c r="AC198" s="1"/>
+      <c r="AD198" s="1"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
-      <c r="G199" s="24"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="G199" s="31"/>
+      <c r="H199" s="31"/>
+      <c r="I199" s="31"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -6782,16 +8513,18 @@
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
+      <c r="AC199" s="1"/>
+      <c r="AD199" s="1"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="6"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
-      <c r="G200" s="24"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="G200" s="31"/>
+      <c r="H200" s="31"/>
+      <c r="I200" s="31"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -6811,16 +8544,18 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
+      <c r="AC200" s="1"/>
+      <c r="AD200" s="1"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="6"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6"/>
-      <c r="G201" s="24"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="G201" s="31"/>
+      <c r="H201" s="31"/>
+      <c r="I201" s="31"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -6840,16 +8575,18 @@
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
+      <c r="AC201" s="1"/>
+      <c r="AD201" s="1"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="6"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
-      <c r="G202" s="24"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="G202" s="31"/>
+      <c r="H202" s="31"/>
+      <c r="I202" s="31"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
@@ -6869,16 +8606,18 @@
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
+      <c r="AC202" s="1"/>
+      <c r="AD202" s="1"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="6"/>
-      <c r="B203" s="6"/>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
-      <c r="G203" s="24"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="G203" s="31"/>
+      <c r="H203" s="31"/>
+      <c r="I203" s="31"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -6898,16 +8637,18 @@
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
+      <c r="AC203" s="1"/>
+      <c r="AD203" s="1"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="6"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
-      <c r="E204" s="6"/>
-      <c r="G204" s="24"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="G204" s="31"/>
+      <c r="H204" s="31"/>
+      <c r="I204" s="31"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
@@ -6927,16 +8668,18 @@
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
+      <c r="AC204" s="1"/>
+      <c r="AD204" s="1"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="6"/>
-      <c r="B205" s="6"/>
-      <c r="C205" s="6"/>
-      <c r="D205" s="6"/>
-      <c r="E205" s="6"/>
-      <c r="G205" s="24"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="G205" s="31"/>
+      <c r="H205" s="31"/>
+      <c r="I205" s="31"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
@@ -6956,16 +8699,18 @@
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
+      <c r="AC205" s="1"/>
+      <c r="AD205" s="1"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="6"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="6"/>
-      <c r="G206" s="24"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="G206" s="31"/>
+      <c r="H206" s="31"/>
+      <c r="I206" s="31"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -6985,16 +8730,18 @@
       <c r="Z206" s="1"/>
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
+      <c r="AC206" s="1"/>
+      <c r="AD206" s="1"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="6"/>
-      <c r="B207" s="6"/>
-      <c r="C207" s="6"/>
-      <c r="D207" s="6"/>
-      <c r="E207" s="6"/>
-      <c r="G207" s="24"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="G207" s="31"/>
+      <c r="H207" s="31"/>
+      <c r="I207" s="31"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
@@ -7014,16 +8761,18 @@
       <c r="Z207" s="1"/>
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
+      <c r="AC207" s="1"/>
+      <c r="AD207" s="1"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="6"/>
-      <c r="B208" s="6"/>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
-      <c r="G208" s="24"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="G208" s="31"/>
+      <c r="H208" s="31"/>
+      <c r="I208" s="31"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
@@ -7043,16 +8792,18 @@
       <c r="Z208" s="1"/>
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
+      <c r="AC208" s="1"/>
+      <c r="AD208" s="1"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="6"/>
-      <c r="B209" s="6"/>
-      <c r="C209" s="6"/>
-      <c r="D209" s="6"/>
-      <c r="E209" s="6"/>
-      <c r="G209" s="24"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="G209" s="31"/>
+      <c r="H209" s="31"/>
+      <c r="I209" s="31"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -7072,16 +8823,18 @@
       <c r="Z209" s="1"/>
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
+      <c r="AC209" s="1"/>
+      <c r="AD209" s="1"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="6"/>
-      <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
-      <c r="G210" s="24"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="G210" s="31"/>
+      <c r="H210" s="31"/>
+      <c r="I210" s="31"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
@@ -7101,16 +8854,18 @@
       <c r="Z210" s="1"/>
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
+      <c r="AC210" s="1"/>
+      <c r="AD210" s="1"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="6"/>
-      <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
-      <c r="G211" s="24"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="G211" s="31"/>
+      <c r="H211" s="31"/>
+      <c r="I211" s="31"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -7130,16 +8885,18 @@
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
+      <c r="AC211" s="1"/>
+      <c r="AD211" s="1"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="6"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
-      <c r="G212" s="24"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="G212" s="31"/>
+      <c r="H212" s="31"/>
+      <c r="I212" s="31"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
@@ -7159,16 +8916,18 @@
       <c r="Z212" s="1"/>
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
+      <c r="AC212" s="1"/>
+      <c r="AD212" s="1"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="6"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
-      <c r="E213" s="6"/>
-      <c r="G213" s="24"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="G213" s="31"/>
+      <c r="H213" s="31"/>
+      <c r="I213" s="31"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
@@ -7188,16 +8947,18 @@
       <c r="Z213" s="1"/>
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
+      <c r="AC213" s="1"/>
+      <c r="AD213" s="1"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="6"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6"/>
-      <c r="G214" s="24"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="G214" s="31"/>
+      <c r="H214" s="31"/>
+      <c r="I214" s="31"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
@@ -7217,16 +8978,18 @@
       <c r="Z214" s="1"/>
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
+      <c r="AC214" s="1"/>
+      <c r="AD214" s="1"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="6"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
-      <c r="E215" s="6"/>
-      <c r="G215" s="24"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="G215" s="31"/>
+      <c r="H215" s="31"/>
+      <c r="I215" s="31"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
@@ -7246,16 +9009,18 @@
       <c r="Z215" s="1"/>
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
+      <c r="AC215" s="1"/>
+      <c r="AD215" s="1"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="6"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
-      <c r="E216" s="6"/>
-      <c r="G216" s="24"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="G216" s="31"/>
+      <c r="H216" s="31"/>
+      <c r="I216" s="31"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
@@ -7275,16 +9040,18 @@
       <c r="Z216" s="1"/>
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
+      <c r="AC216" s="1"/>
+      <c r="AD216" s="1"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="6"/>
-      <c r="B217" s="6"/>
-      <c r="C217" s="6"/>
-      <c r="D217" s="6"/>
-      <c r="E217" s="6"/>
-      <c r="G217" s="24"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="G217" s="31"/>
+      <c r="H217" s="31"/>
+      <c r="I217" s="31"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
@@ -7304,16 +9071,18 @@
       <c r="Z217" s="1"/>
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
+      <c r="AC217" s="1"/>
+      <c r="AD217" s="1"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="6"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="6"/>
-      <c r="E218" s="6"/>
-      <c r="G218" s="24"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="G218" s="31"/>
+      <c r="H218" s="31"/>
+      <c r="I218" s="31"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
@@ -7333,16 +9102,18 @@
       <c r="Z218" s="1"/>
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
+      <c r="AC218" s="1"/>
+      <c r="AD218" s="1"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="6"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
-      <c r="E219" s="6"/>
-      <c r="G219" s="24"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="G219" s="31"/>
+      <c r="H219" s="31"/>
+      <c r="I219" s="31"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
@@ -7362,16 +9133,18 @@
       <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
+      <c r="AC219" s="1"/>
+      <c r="AD219" s="1"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="6"/>
-      <c r="B220" s="6"/>
-      <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
-      <c r="E220" s="6"/>
-      <c r="G220" s="24"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="G220" s="31"/>
+      <c r="H220" s="31"/>
+      <c r="I220" s="31"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
@@ -7391,6 +9164,8 @@
       <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
+      <c r="AC220" s="1"/>
+      <c r="AD220" s="1"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/Src/Data/Tables/ItemDefine.xlsx
+++ b/Src/Data/Tables/ItemDefine.xlsx
@@ -262,7 +262,7 @@
     <t>WARRIOR</t>
   </si>
   <si>
-    <t>UI/Items/equip1001</t>
+    <t>UI/ItemIcons/equip1001</t>
   </si>
   <si>
     <t>Iron Shield</t>
@@ -274,148 +274,148 @@
     <t>Accessory</t>
   </si>
   <si>
-    <t>UI/Items/equip1002</t>
+    <t>UI/ItemIcons/equip1002</t>
   </si>
   <si>
     <t>Iron Helmet</t>
   </si>
   <si>
-    <t>Helmet</t>
-  </si>
-  <si>
-    <t>UI/Items/equip1003</t>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/equip1003</t>
   </si>
   <si>
     <t>Iron Chest Plate</t>
   </si>
   <si>
+    <t>UI/ItemIcons/equip1004</t>
+  </si>
+  <si>
+    <t>Iron Pauldron</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/equip1005</t>
+  </si>
+  <si>
+    <t>Iron Legplates</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/equip1006</t>
+  </si>
+  <si>
+    <t>Iron Warboots</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/equip1007</t>
+  </si>
+  <si>
+    <t>Wand</t>
+  </si>
+  <si>
+    <t>“Just a wooden wand”</t>
+  </si>
+  <si>
+    <t>WIZARD</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/equip2001</t>
+  </si>
+  <si>
+    <t>Leather Grimoire</t>
+  </si>
+  <si>
+    <t>“Made with finely selected leather”</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/equip2002</t>
+  </si>
+  <si>
+    <t>Leather Scarf</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/equip2003</t>
+  </si>
+  <si>
+    <t>Leather Cloak</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/equip2004</t>
+  </si>
+  <si>
+    <t>Leather Spaulder</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/equip2005</t>
+  </si>
+  <si>
+    <t>Leather Pants</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/equip2006</t>
+  </si>
+  <si>
+    <t>Leather Boots</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/equip2007</t>
+  </si>
+  <si>
+    <t>Wooden Bow</t>
+  </si>
+  <si>
+    <t>“Won't easily break”</t>
+  </si>
+  <si>
+    <t>ARCHER</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/equip3001</t>
+  </si>
+  <si>
+    <t>Leather Quiver</t>
+  </si>
+  <si>
+    <t>“Leathered...”</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/equip3002</t>
+  </si>
+  <si>
+    <t>Leather Hat</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/equip3003</t>
+  </si>
+  <si>
+    <t>Leather Vest</t>
+  </si>
+  <si>
     <t>Chest</t>
   </si>
   <si>
-    <t>UI/Items/equip1004</t>
-  </si>
-  <si>
-    <t>Iron Pauldron</t>
+    <t>UI/ItemIcons/equip3004</t>
+  </si>
+  <si>
+    <t>Leather Shoulders</t>
   </si>
   <si>
     <t>Shoulder</t>
   </si>
   <si>
-    <t>UI/Items/equip1005</t>
-  </si>
-  <si>
-    <t>Iron Legplates</t>
+    <t>UI/ItemIcons/equip3005</t>
   </si>
   <si>
     <t>Pants</t>
   </si>
   <si>
-    <t>UI/Items/equip1006</t>
-  </si>
-  <si>
-    <t>Iron Warboots</t>
+    <t>UI/ItemIcons/equip3006</t>
   </si>
   <si>
     <t>Boots</t>
   </si>
   <si>
-    <t>UI/Items/equip1007</t>
-  </si>
-  <si>
-    <t>Wand</t>
-  </si>
-  <si>
-    <t>“Just a wooden wand”</t>
-  </si>
-  <si>
-    <t>WIZARD</t>
-  </si>
-  <si>
-    <t>UI/Items/equip2001</t>
-  </si>
-  <si>
-    <t>Leather Grimoire</t>
-  </si>
-  <si>
-    <t>“Made with finely selected leather”</t>
-  </si>
-  <si>
-    <t>UI/Items/equip2002</t>
-  </si>
-  <si>
-    <t>Leather Scarf</t>
-  </si>
-  <si>
-    <t>UI/Items/equip2003</t>
-  </si>
-  <si>
-    <t>Leather Cloak</t>
-  </si>
-  <si>
-    <t>UI/Items/equip2004</t>
-  </si>
-  <si>
-    <t>Leather Spaulder</t>
-  </si>
-  <si>
-    <t>UI/Items/equip2005</t>
-  </si>
-  <si>
-    <t>Leather Pants</t>
-  </si>
-  <si>
-    <t>UI/Items/equip2006</t>
-  </si>
-  <si>
-    <t>Leather Boots</t>
-  </si>
-  <si>
-    <t>UI/Items/equip2007</t>
-  </si>
-  <si>
-    <t>Wooden Bow</t>
-  </si>
-  <si>
-    <t>“Won't easily break”</t>
-  </si>
-  <si>
-    <t>ARCHER</t>
-  </si>
-  <si>
-    <t>UI/Items/equip3001</t>
-  </si>
-  <si>
-    <t>Leather Quiver</t>
-  </si>
-  <si>
-    <t>“Leathered...”</t>
-  </si>
-  <si>
-    <t>UI/Items/equip3002</t>
-  </si>
-  <si>
-    <t>Leather Hat</t>
-  </si>
-  <si>
-    <t>UI/Items/equip3003</t>
-  </si>
-  <si>
-    <t>Leather Vest</t>
-  </si>
-  <si>
-    <t>UI/Items/equip3004</t>
-  </si>
-  <si>
-    <t>Leather Shoulders</t>
-  </si>
-  <si>
-    <t>UI/Items/equip3005</t>
-  </si>
-  <si>
-    <t>UI/Items/equip3006</t>
-  </si>
-  <si>
-    <t>UI/Items/equip3007</t>
+    <t>UI/ItemIcons/equip3007</t>
   </si>
   <si>
     <t>Star Blade</t>
@@ -424,37 +424,37 @@
     <t>“You can feel overwalming power of star from it”</t>
   </si>
   <si>
-    <t>UI/Items/equip1011</t>
+    <t>UI/ItemIcons/equip1011</t>
   </si>
   <si>
     <t>Star Shield</t>
   </si>
   <si>
-    <t>UI/Items/equip1012</t>
+    <t>UI/ItemIcons/equip1012</t>
   </si>
   <si>
     <t>Star Helm</t>
   </si>
   <si>
-    <t>UI/Items/equip1013</t>
+    <t>UI/ItemIcons/equip1013</t>
   </si>
   <si>
     <t>Star Armor</t>
   </si>
   <si>
-    <t>UI/Items/equip1014</t>
+    <t>UI/ItemIcons/equip1014</t>
   </si>
   <si>
     <t>Star Pauldron</t>
   </si>
   <si>
-    <t>UI/Items/equip1015</t>
+    <t>UI/ItemIcons/equip1015</t>
   </si>
   <si>
     <t>Star Kneepad</t>
   </si>
   <si>
-    <t>UI/Items/equip1016</t>
+    <t>UI/ItemIcons/equip1016</t>
   </si>
   <si>
     <t>Star Boots</t>
@@ -463,49 +463,49 @@
     <t>“Hot as if burning like sun”</t>
   </si>
   <si>
-    <t>UI/Items/equip1017</t>
+    <t>UI/ItemIcons/equip1017</t>
   </si>
   <si>
     <t>Solar Wand</t>
   </si>
   <si>
-    <t>UI/Items/equip2011</t>
+    <t>UI/ItemIcons/equip2011</t>
   </si>
   <si>
     <t>Solar Shield</t>
   </si>
   <si>
-    <t>UI/Items/equip2012</t>
+    <t>UI/ItemIcons/equip2012</t>
   </si>
   <si>
     <t>Solar Helm</t>
   </si>
   <si>
-    <t>UI/Items/equip2013</t>
+    <t>UI/ItemIcons/equip2013</t>
   </si>
   <si>
     <t>Solar Armor</t>
   </si>
   <si>
-    <t>UI/Items/equip2014</t>
+    <t>UI/ItemIcons/equip2014</t>
   </si>
   <si>
     <t>Solar Pauldron</t>
   </si>
   <si>
-    <t>UI/Items/equip2015</t>
+    <t>UI/ItemIcons/equip2015</t>
   </si>
   <si>
     <t>Solar Kneepad</t>
   </si>
   <si>
-    <t>UI/Items/equip2016</t>
+    <t>UI/ItemIcons/equip2016</t>
   </si>
   <si>
     <t>Solar Boots</t>
   </si>
   <si>
-    <t>UI/Items/equip2017</t>
+    <t>UI/ItemIcons/equip2017</t>
   </si>
   <si>
     <t>Lunar Bow</t>
@@ -514,50 +514,50 @@
     <t>“Filled with lunar power”</t>
   </si>
   <si>
-    <t>UI/Items/equip3011</t>
+    <t>UI/ItemIcons/equip3011</t>
   </si>
   <si>
     <t>Lunar Shield</t>
   </si>
   <si>
-    <t>UI/Items/equip3012</t>
+    <t>UI/ItemIcons/equip3012</t>
   </si>
   <si>
     <t>Lunar Helm</t>
   </si>
   <si>
-    <t>UI/Items/equip3013</t>
+    <t>UI/ItemIcons/equip3013</t>
   </si>
   <si>
     <t>Lunar Armor</t>
   </si>
   <si>
-    <t>UI/Items/equip3014</t>
+    <t>UI/ItemIcons/equip3014</t>
   </si>
   <si>
     <t>Lunar Pauldron</t>
   </si>
   <si>
-    <t>UI/Items/equip3015</t>
+    <t>UI/ItemIcons/equip3015</t>
   </si>
   <si>
     <t>Lunar Kneepad</t>
   </si>
   <si>
-    <t>UI/Items/equip3016</t>
+    <t>UI/ItemIcons/equip3016</t>
   </si>
   <si>
     <t>Lunar Boots</t>
   </si>
   <si>
-    <t>UI/Items/equip3017</t>
+    <t>UI/ItemIcons/equip3017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -586,11 +586,17 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="&quot;Microsoft Yahei&quot;"/>
     </font>
     <font>
       <sz val="9.0"/>
+      <name val="&quot;Microsoft Yahei&quot;"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
       <name val="&quot;Microsoft Yahei&quot;"/>
     </font>
   </fonts>
@@ -620,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -672,9 +678,6 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,25 +693,31 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1224,7 +1233,7 @@
       <c r="M4" s="16">
         <v>99.0</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="16" t="s">
         <v>38</v>
       </c>
       <c r="O4" s="16" t="s">
@@ -1233,7 +1242,7 @@
       <c r="P4" s="16">
         <v>500.0</v>
       </c>
-      <c r="Q4" s="18"/>
+      <c r="Q4" s="17"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -1286,7 +1295,7 @@
       <c r="M5" s="16">
         <v>99.0</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="16" t="s">
         <v>42</v>
       </c>
       <c r="O5" s="16" t="s">
@@ -1295,7 +1304,7 @@
       <c r="P5" s="16">
         <v>500.0</v>
       </c>
-      <c r="Q5" s="18"/>
+      <c r="Q5" s="17"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1320,13 +1329,13 @@
       <c r="C6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="15">
@@ -1336,7 +1345,7 @@
       <c r="I6" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="18">
         <v>5.0</v>
       </c>
       <c r="K6" s="16">
@@ -1348,7 +1357,7 @@
       <c r="M6" s="16">
         <v>99.0</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O6" s="16" t="s">
@@ -1357,7 +1366,7 @@
       <c r="P6" s="16">
         <v>1.0</v>
       </c>
-      <c r="Q6" s="18"/>
+      <c r="Q6" s="17"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1382,13 +1391,13 @@
       <c r="C7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="15">
@@ -1398,7 +1407,7 @@
       <c r="I7" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="18">
         <v>5.0</v>
       </c>
       <c r="K7" s="16">
@@ -1410,16 +1419,16 @@
       <c r="M7" s="16">
         <v>99.0</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="16" t="s">
         <v>51</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="17">
         <v>2.0</v>
       </c>
-      <c r="Q7" s="18"/>
+      <c r="Q7" s="17"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1450,7 +1459,7 @@
       <c r="E8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="15">
@@ -1460,24 +1469,24 @@
       <c r="I8" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="18">
         <v>0.0</v>
       </c>
-      <c r="K8" s="18"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="16">
         <v>1.0</v>
       </c>
       <c r="M8" s="16">
         <v>1.0</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="16" t="s">
         <v>55</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1502,13 +1511,13 @@
       <c r="C9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="15">
@@ -1518,22 +1527,22 @@
       <c r="I9" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="18">
         <v>0.0</v>
       </c>
-      <c r="K9" s="18"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="16">
         <v>1.0</v>
       </c>
       <c r="M9" s="16">
         <v>99.0</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1558,13 +1567,13 @@
       <c r="C10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="15">
@@ -1572,17 +1581,17 @@
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="19">
+      <c r="J10" s="18">
         <v>0.0</v>
       </c>
-      <c r="K10" s="18"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="16">
         <v>1.0</v>
       </c>
       <c r="M10" s="16">
         <v>1.0</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>64</v>
       </c>
       <c r="O10" s="16" t="s">
@@ -1591,7 +1600,7 @@
       <c r="P10" s="16">
         <v>1000.0</v>
       </c>
-      <c r="Q10" s="18"/>
+      <c r="Q10" s="17"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1616,13 +1625,13 @@
       <c r="C11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="15">
@@ -1632,17 +1641,17 @@
       <c r="I11" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="18">
         <v>0.0</v>
       </c>
-      <c r="K11" s="18"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="16">
         <v>1.0</v>
       </c>
       <c r="M11" s="16">
         <v>1.0</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>68</v>
       </c>
       <c r="O11" s="16" t="s">
@@ -1651,7 +1660,7 @@
       <c r="P11" s="16">
         <v>10000.0</v>
       </c>
-      <c r="Q11" s="18"/>
+      <c r="Q11" s="17"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1676,13 +1685,13 @@
       <c r="C12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>71</v>
       </c>
       <c r="G12" s="15">
@@ -1692,24 +1701,24 @@
       <c r="I12" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="18">
         <v>0.0</v>
       </c>
-      <c r="K12" s="18"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="16">
         <v>1.0</v>
       </c>
       <c r="M12" s="16">
         <v>1.0</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="16" t="s">
         <v>72</v>
       </c>
       <c r="O12" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1731,7 +1740,7 @@
       <c r="B13" s="14">
         <v>10.0</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="16" t="s">
@@ -1750,26 +1759,26 @@
       <c r="I13" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="18">
         <v>0.0</v>
       </c>
-      <c r="K13" s="21"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="16">
         <v>1.0</v>
       </c>
       <c r="M13" s="16">
         <v>1.0</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="21">
         <v>1.0</v>
       </c>
-      <c r="Q13" s="21"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1785,43 +1794,43 @@
       <c r="AD13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>1001.0</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>1001.0</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <v>1.0</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23">
+      <c r="I14" s="25"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22">
         <v>5.0</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="22">
         <v>1.0</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="O14" s="26"/>
+      <c r="O14" s="25"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="1"/>
@@ -1839,43 +1848,43 @@
       <c r="AD14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>1002.0</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>1002.0</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="25">
         <v>1.0</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="26"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="29"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23">
+      <c r="K15" s="22"/>
+      <c r="L15" s="22">
         <v>5.0</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="22">
         <v>1.0</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="N15" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="O15" s="26"/>
+      <c r="O15" s="25"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="28"/>
       <c r="R15" s="1"/>
@@ -1893,43 +1902,43 @@
       <c r="AD15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>1003.0</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>1003.0</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="25">
         <v>1.0</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23">
+      <c r="I16" s="25"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22">
         <v>5.0</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="22">
         <v>1.0</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="N16" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="26"/>
+      <c r="O16" s="25"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="28"/>
       <c r="R16" s="1"/>
@@ -1947,43 +1956,43 @@
       <c r="AD16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>1004.0</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>1004.0</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M17" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N17" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23">
-        <v>5.0</v>
-      </c>
-      <c r="M17" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="O17" s="26"/>
+      <c r="O17" s="25"/>
       <c r="P17" s="28"/>
       <c r="Q17" s="28"/>
       <c r="R17" s="1"/>
@@ -2001,43 +2010,43 @@
       <c r="AD17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <v>1005.0</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>1005.0</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M18" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N18" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="23">
-        <v>5.0</v>
-      </c>
-      <c r="M18" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" s="26"/>
+      <c r="O18" s="25"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
       <c r="R18" s="1"/>
@@ -2055,41 +2064,41 @@
       <c r="AD18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>1006.0</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>1006.0</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="26">
+      <c r="F19" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="25">
         <v>1.0</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="23"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="29"/>
-      <c r="L19" s="23">
+      <c r="L19" s="22">
         <v>5.0</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="22">
         <v>1.0</v>
       </c>
-      <c r="N19" s="23" t="s">
-        <v>99</v>
+      <c r="N19" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="O19" s="30"/>
       <c r="P19" s="28"/>
@@ -2109,43 +2118,43 @@
       <c r="AD19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>1007.0</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>1007.0</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="26">
+      <c r="F20" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="25">
         <v>1.0</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="23"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="29"/>
-      <c r="L20" s="23">
+      <c r="L20" s="22">
         <v>5.0</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="22">
         <v>1.0</v>
       </c>
-      <c r="N20" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="O20" s="26"/>
+      <c r="N20" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="25"/>
       <c r="P20" s="27"/>
       <c r="Q20" s="28"/>
       <c r="R20" s="1"/>
@@ -2163,43 +2172,43 @@
       <c r="AD20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>2001.0</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>2001.0</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="26" t="s">
+      <c r="C21" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <v>1.0</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="23"/>
+      <c r="H21" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="29"/>
-      <c r="L21" s="23">
+      <c r="L21" s="22">
         <v>5.0</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="22">
         <v>1.0</v>
       </c>
-      <c r="N21" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="O21" s="26"/>
+      <c r="N21" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="25"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="28"/>
       <c r="R21" s="1"/>
@@ -2217,43 +2226,43 @@
       <c r="AD21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>2002.0</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>2002.0</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="26" t="s">
+      <c r="C22" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="25">
         <v>1.0</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="M22" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="N22" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="23">
-        <v>5.0</v>
-      </c>
-      <c r="M22" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="O22" s="26"/>
+      <c r="O22" s="25"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
       <c r="R22" s="1"/>
@@ -2271,43 +2280,43 @@
       <c r="AD22" s="1"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>2003.0</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>2003.0</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="26" t="s">
+      <c r="C23" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>1.0</v>
       </c>
-      <c r="H23" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="23"/>
+      <c r="H23" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="29"/>
-      <c r="L23" s="23">
+      <c r="L23" s="22">
         <v>5.0</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="22">
         <v>1.0</v>
       </c>
-      <c r="N23" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="O23" s="26"/>
+      <c r="N23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="O23" s="25"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="28"/>
       <c r="R23" s="1"/>
@@ -2331,23 +2340,23 @@
       <c r="B24" s="30">
         <v>2004.0</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="25" t="s">
+      <c r="C24" s="23" t="s">
         <v>108</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>92</v>
+      <c r="F24" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G24" s="30">
         <v>1.0</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="29"/>
@@ -2358,8 +2367,8 @@
       <c r="M24" s="29">
         <v>1.0</v>
       </c>
-      <c r="N24" s="29" t="s">
-        <v>113</v>
+      <c r="N24" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="O24" s="30"/>
       <c r="P24" s="28"/>
@@ -2385,23 +2394,23 @@
       <c r="B25" s="30">
         <v>2005.0</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>108</v>
+      <c r="C25" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>95</v>
+      <c r="F25" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G25" s="30">
         <v>1.0</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="29"/>
@@ -2412,8 +2421,8 @@
       <c r="M25" s="29">
         <v>1.0</v>
       </c>
-      <c r="N25" s="29" t="s">
-        <v>115</v>
+      <c r="N25" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="O25" s="30"/>
       <c r="P25" s="28"/>
@@ -2439,23 +2448,23 @@
       <c r="B26" s="30">
         <v>2006.0</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>108</v>
+      <c r="C26" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="25" t="s">
-        <v>98</v>
+      <c r="F26" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G26" s="30">
         <v>1.0</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="29"/>
@@ -2466,8 +2475,8 @@
       <c r="M26" s="29">
         <v>1.0</v>
       </c>
-      <c r="N26" s="29" t="s">
-        <v>117</v>
+      <c r="N26" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="O26" s="30"/>
       <c r="P26" s="28"/>
@@ -2493,23 +2502,23 @@
       <c r="B27" s="30">
         <v>2007.0</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>108</v>
+      <c r="C27" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>101</v>
+      <c r="F27" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G27" s="30">
         <v>1.0</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I27" s="30"/>
       <c r="J27" s="29"/>
@@ -2520,8 +2529,8 @@
       <c r="M27" s="29">
         <v>1.0</v>
       </c>
-      <c r="N27" s="29" t="s">
-        <v>119</v>
+      <c r="N27" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="O27" s="30"/>
       <c r="P27" s="28"/>
@@ -2547,23 +2556,23 @@
       <c r="B28" s="30">
         <v>3001.0</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>121</v>
+      <c r="C28" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="24" t="s">
         <v>81</v>
       </c>
       <c r="G28" s="30">
         <v>1.0</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="29"/>
@@ -2574,8 +2583,8 @@
       <c r="M28" s="29">
         <v>1.0</v>
       </c>
-      <c r="N28" s="29" t="s">
-        <v>123</v>
+      <c r="N28" s="26" t="s">
+        <v>119</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="28"/>
@@ -2601,23 +2610,23 @@
       <c r="B29" s="30">
         <v>3002.0</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>125</v>
+      <c r="C29" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="24" t="s">
         <v>86</v>
       </c>
       <c r="G29" s="30">
         <v>1.0</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="29"/>
@@ -2628,8 +2637,8 @@
       <c r="M29" s="29">
         <v>1.0</v>
       </c>
-      <c r="N29" s="29" t="s">
-        <v>126</v>
+      <c r="N29" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="O29" s="30"/>
       <c r="P29" s="28"/>
@@ -2655,23 +2664,23 @@
       <c r="B30" s="30">
         <v>3003.0</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>125</v>
+      <c r="C30" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="31" t="s">
         <v>89</v>
       </c>
       <c r="G30" s="30">
         <v>1.0</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I30" s="30"/>
       <c r="J30" s="29"/>
@@ -2682,8 +2691,8 @@
       <c r="M30" s="29">
         <v>1.0</v>
       </c>
-      <c r="N30" s="29" t="s">
-        <v>128</v>
+      <c r="N30" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="O30" s="30"/>
       <c r="P30" s="28"/>
@@ -2709,23 +2718,23 @@
       <c r="B31" s="30">
         <v>3004.0</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="25" t="s">
+      <c r="C31" s="23" t="s">
         <v>125</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="E31" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="25" t="s">
-        <v>92</v>
+      <c r="F31" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="G31" s="30">
         <v>1.0</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="29"/>
@@ -2736,8 +2745,8 @@
       <c r="M31" s="29">
         <v>1.0</v>
       </c>
-      <c r="N31" s="29" t="s">
-        <v>130</v>
+      <c r="N31" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="O31" s="30"/>
       <c r="P31" s="28"/>
@@ -2763,23 +2772,23 @@
       <c r="B32" s="30">
         <v>3005.0</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>125</v>
+      <c r="C32" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="25" t="s">
-        <v>95</v>
+      <c r="F32" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="G32" s="30">
         <v>1.0</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I32" s="30"/>
       <c r="J32" s="29"/>
@@ -2790,8 +2799,8 @@
       <c r="M32" s="29">
         <v>1.0</v>
       </c>
-      <c r="N32" s="29" t="s">
-        <v>132</v>
+      <c r="N32" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="O32" s="30"/>
       <c r="P32" s="28"/>
@@ -2817,23 +2826,23 @@
       <c r="B33" s="30">
         <v>3006.0</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>125</v>
+      <c r="C33" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="25" t="s">
-        <v>98</v>
+      <c r="F33" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="G33" s="30">
         <v>1.0</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="29"/>
@@ -2844,8 +2853,8 @@
       <c r="M33" s="29">
         <v>1.0</v>
       </c>
-      <c r="N33" s="29" t="s">
-        <v>133</v>
+      <c r="N33" s="26" t="s">
+        <v>132</v>
       </c>
       <c r="O33" s="30"/>
       <c r="P33" s="28"/>
@@ -2871,23 +2880,23 @@
       <c r="B34" s="30">
         <v>3007.0</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>125</v>
+      <c r="C34" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="25" t="s">
-        <v>101</v>
+      <c r="F34" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="G34" s="30">
         <v>1.0</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I34" s="30"/>
       <c r="J34" s="29"/>
@@ -2898,7 +2907,7 @@
       <c r="M34" s="29">
         <v>1.0</v>
       </c>
-      <c r="N34" s="29" t="s">
+      <c r="N34" s="26" t="s">
         <v>134</v>
       </c>
       <c r="O34" s="30"/>
@@ -2925,16 +2934,16 @@
       <c r="B35" s="30">
         <v>1011.0</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="24" t="s">
         <v>136</v>
       </c>
       <c r="E35" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="24" t="s">
         <v>81</v>
       </c>
       <c r="G35" s="30">
@@ -2952,7 +2961,7 @@
       <c r="M35" s="29">
         <v>1.0</v>
       </c>
-      <c r="N35" s="29" t="s">
+      <c r="N35" s="26" t="s">
         <v>137</v>
       </c>
       <c r="O35" s="30"/>
@@ -2979,16 +2988,16 @@
       <c r="B36" s="30">
         <v>1012.0</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="24" t="s">
         <v>136</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="24" t="s">
         <v>86</v>
       </c>
       <c r="G36" s="30">
@@ -3006,7 +3015,7 @@
       <c r="M36" s="29">
         <v>1.0</v>
       </c>
-      <c r="N36" s="29" t="s">
+      <c r="N36" s="26" t="s">
         <v>139</v>
       </c>
       <c r="O36" s="30"/>
@@ -3033,16 +3042,16 @@
       <c r="B37" s="30">
         <v>1013.0</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="24" t="s">
         <v>136</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="31" t="s">
         <v>89</v>
       </c>
       <c r="G37" s="30">
@@ -3060,7 +3069,7 @@
       <c r="M37" s="29">
         <v>1.0</v>
       </c>
-      <c r="N37" s="29" t="s">
+      <c r="N37" s="26" t="s">
         <v>141</v>
       </c>
       <c r="O37" s="30"/>
@@ -3087,17 +3096,17 @@
       <c r="B38" s="30">
         <v>1014.0</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="24" t="s">
         <v>136</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>92</v>
+      <c r="F38" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G38" s="30">
         <v>10.0</v>
@@ -3114,7 +3123,7 @@
       <c r="M38" s="29">
         <v>1.0</v>
       </c>
-      <c r="N38" s="29" t="s">
+      <c r="N38" s="26" t="s">
         <v>143</v>
       </c>
       <c r="O38" s="30"/>
@@ -3141,17 +3150,17 @@
       <c r="B39" s="30">
         <v>1015.0</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="24" t="s">
         <v>136</v>
       </c>
       <c r="E39" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="25" t="s">
-        <v>95</v>
+      <c r="F39" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G39" s="30">
         <v>10.0</v>
@@ -3168,7 +3177,7 @@
       <c r="M39" s="29">
         <v>1.0</v>
       </c>
-      <c r="N39" s="29" t="s">
+      <c r="N39" s="26" t="s">
         <v>145</v>
       </c>
       <c r="O39" s="30"/>
@@ -3195,17 +3204,17 @@
       <c r="B40" s="30">
         <v>1016.0</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="24" t="s">
         <v>136</v>
       </c>
       <c r="E40" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="25" t="s">
-        <v>98</v>
+      <c r="F40" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G40" s="30">
         <v>10.0</v>
@@ -3222,7 +3231,7 @@
       <c r="M40" s="29">
         <v>1.0</v>
       </c>
-      <c r="N40" s="29" t="s">
+      <c r="N40" s="26" t="s">
         <v>147</v>
       </c>
       <c r="O40" s="30"/>
@@ -3249,17 +3258,17 @@
       <c r="B41" s="30">
         <v>1017.0</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="24" t="s">
         <v>149</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="25" t="s">
-        <v>101</v>
+      <c r="F41" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G41" s="30">
         <v>10.0</v>
@@ -3276,7 +3285,7 @@
       <c r="M41" s="29">
         <v>1.0</v>
       </c>
-      <c r="N41" s="29" t="s">
+      <c r="N41" s="26" t="s">
         <v>150</v>
       </c>
       <c r="O41" s="30"/>
@@ -3303,23 +3312,23 @@
       <c r="B42" s="30">
         <v>2011.0</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="24" t="s">
         <v>149</v>
       </c>
       <c r="E42" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="24" t="s">
         <v>81</v>
       </c>
       <c r="G42" s="30">
         <v>10.0</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="29"/>
@@ -3330,7 +3339,7 @@
       <c r="M42" s="29">
         <v>1.0</v>
       </c>
-      <c r="N42" s="29" t="s">
+      <c r="N42" s="26" t="s">
         <v>152</v>
       </c>
       <c r="O42" s="30"/>
@@ -3357,23 +3366,23 @@
       <c r="B43" s="30">
         <v>2012.0</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="24" t="s">
         <v>149</v>
       </c>
       <c r="E43" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="24" t="s">
         <v>86</v>
       </c>
       <c r="G43" s="30">
         <v>10.0</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I43" s="30"/>
       <c r="J43" s="29"/>
@@ -3384,7 +3393,7 @@
       <c r="M43" s="29">
         <v>1.0</v>
       </c>
-      <c r="N43" s="29" t="s">
+      <c r="N43" s="26" t="s">
         <v>154</v>
       </c>
       <c r="O43" s="30"/>
@@ -3411,23 +3420,23 @@
       <c r="B44" s="30">
         <v>2013.0</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="24" t="s">
         <v>149</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="31" t="s">
         <v>89</v>
       </c>
       <c r="G44" s="30">
         <v>10.0</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I44" s="30"/>
       <c r="J44" s="29"/>
@@ -3438,7 +3447,7 @@
       <c r="M44" s="29">
         <v>1.0</v>
       </c>
-      <c r="N44" s="29" t="s">
+      <c r="N44" s="26" t="s">
         <v>156</v>
       </c>
       <c r="O44" s="30"/>
@@ -3465,23 +3474,23 @@
       <c r="B45" s="30">
         <v>2014.0</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="24" t="s">
         <v>149</v>
       </c>
       <c r="E45" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="25" t="s">
-        <v>92</v>
+      <c r="F45" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G45" s="30">
         <v>10.0</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I45" s="30"/>
       <c r="J45" s="29"/>
@@ -3492,7 +3501,7 @@
       <c r="M45" s="29">
         <v>1.0</v>
       </c>
-      <c r="N45" s="29" t="s">
+      <c r="N45" s="26" t="s">
         <v>158</v>
       </c>
       <c r="O45" s="30"/>
@@ -3519,23 +3528,23 @@
       <c r="B46" s="30">
         <v>2015.0</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="24" t="s">
         <v>149</v>
       </c>
       <c r="E46" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F46" s="25" t="s">
-        <v>95</v>
+      <c r="F46" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G46" s="30">
         <v>10.0</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I46" s="30"/>
       <c r="J46" s="29"/>
@@ -3546,7 +3555,7 @@
       <c r="M46" s="29">
         <v>1.0</v>
       </c>
-      <c r="N46" s="29" t="s">
+      <c r="N46" s="26" t="s">
         <v>160</v>
       </c>
       <c r="O46" s="30"/>
@@ -3573,23 +3582,23 @@
       <c r="B47" s="30">
         <v>2016.0</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="24" t="s">
         <v>149</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>98</v>
+      <c r="F47" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G47" s="30">
         <v>10.0</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I47" s="30"/>
       <c r="J47" s="29"/>
@@ -3600,7 +3609,7 @@
       <c r="M47" s="29">
         <v>1.0</v>
       </c>
-      <c r="N47" s="29" t="s">
+      <c r="N47" s="26" t="s">
         <v>162</v>
       </c>
       <c r="O47" s="30"/>
@@ -3627,23 +3636,23 @@
       <c r="B48" s="30">
         <v>2017.0</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="24" t="s">
         <v>149</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>101</v>
+      <c r="F48" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G48" s="30">
         <v>10.0</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I48" s="30"/>
       <c r="J48" s="29"/>
@@ -3654,7 +3663,7 @@
       <c r="M48" s="29">
         <v>1.0</v>
       </c>
-      <c r="N48" s="29" t="s">
+      <c r="N48" s="26" t="s">
         <v>164</v>
       </c>
       <c r="O48" s="30"/>
@@ -3681,23 +3690,23 @@
       <c r="B49" s="30">
         <v>3011.0</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>166</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="24" t="s">
         <v>81</v>
       </c>
       <c r="G49" s="30">
         <v>10.0</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I49" s="30"/>
       <c r="J49" s="29"/>
@@ -3708,7 +3717,7 @@
       <c r="M49" s="29">
         <v>1.0</v>
       </c>
-      <c r="N49" s="29" t="s">
+      <c r="N49" s="26" t="s">
         <v>167</v>
       </c>
       <c r="O49" s="30"/>
@@ -3735,23 +3744,23 @@
       <c r="B50" s="30">
         <v>3012.0</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>166</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="24" t="s">
         <v>86</v>
       </c>
       <c r="G50" s="30">
         <v>10.0</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I50" s="30"/>
       <c r="J50" s="29"/>
@@ -3762,7 +3771,7 @@
       <c r="M50" s="29">
         <v>1.0</v>
       </c>
-      <c r="N50" s="29" t="s">
+      <c r="N50" s="26" t="s">
         <v>169</v>
       </c>
       <c r="O50" s="30"/>
@@ -3789,23 +3798,23 @@
       <c r="B51" s="30">
         <v>3013.0</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="24" t="s">
         <v>166</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="31" t="s">
         <v>89</v>
       </c>
       <c r="G51" s="30">
         <v>10.0</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I51" s="30"/>
       <c r="J51" s="29"/>
@@ -3816,7 +3825,7 @@
       <c r="M51" s="29">
         <v>1.0</v>
       </c>
-      <c r="N51" s="29" t="s">
+      <c r="N51" s="26" t="s">
         <v>171</v>
       </c>
       <c r="O51" s="30"/>
@@ -3843,23 +3852,23 @@
       <c r="B52" s="30">
         <v>3014.0</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="24" t="s">
         <v>166</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="25" t="s">
-        <v>92</v>
+      <c r="F52" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G52" s="30">
         <v>10.0</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I52" s="30"/>
       <c r="J52" s="29"/>
@@ -3870,7 +3879,7 @@
       <c r="M52" s="29">
         <v>1.0</v>
       </c>
-      <c r="N52" s="29" t="s">
+      <c r="N52" s="26" t="s">
         <v>173</v>
       </c>
       <c r="O52" s="30"/>
@@ -3897,23 +3906,23 @@
       <c r="B53" s="30">
         <v>3015.0</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="24" t="s">
         <v>166</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="25" t="s">
-        <v>95</v>
+      <c r="F53" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G53" s="30">
         <v>10.0</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I53" s="30"/>
       <c r="J53" s="29"/>
@@ -3924,7 +3933,7 @@
       <c r="M53" s="29">
         <v>1.0</v>
       </c>
-      <c r="N53" s="29" t="s">
+      <c r="N53" s="26" t="s">
         <v>175</v>
       </c>
       <c r="O53" s="30"/>
@@ -3951,23 +3960,23 @@
       <c r="B54" s="30">
         <v>3016.0</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="24" t="s">
         <v>166</v>
       </c>
       <c r="E54" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F54" s="25" t="s">
-        <v>98</v>
+      <c r="F54" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G54" s="30">
         <v>10.0</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I54" s="30"/>
       <c r="J54" s="29"/>
@@ -3978,7 +3987,7 @@
       <c r="M54" s="29">
         <v>1.0</v>
       </c>
-      <c r="N54" s="29" t="s">
+      <c r="N54" s="26" t="s">
         <v>177</v>
       </c>
       <c r="O54" s="30"/>
@@ -4005,23 +4014,23 @@
       <c r="B55" s="30">
         <v>3017.0</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="24" t="s">
         <v>166</v>
       </c>
       <c r="E55" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="25" t="s">
-        <v>101</v>
+      <c r="F55" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="G55" s="30">
         <v>10.0</v>
       </c>
       <c r="H55" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I55" s="30"/>
       <c r="J55" s="29"/>
@@ -4032,7 +4041,7 @@
       <c r="M55" s="29">
         <v>1.0</v>
       </c>
-      <c r="N55" s="29" t="s">
+      <c r="N55" s="26" t="s">
         <v>179</v>
       </c>
       <c r="O55" s="30"/>
@@ -4058,9 +4067,9 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -4089,9 +4098,9 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -4120,9 +4129,9 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -4151,9 +4160,9 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -4182,9 +4191,9 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -4213,9 +4222,9 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -4244,9 +4253,9 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -4275,9 +4284,9 @@
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -4306,9 +4315,9 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -4337,9 +4346,9 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -4368,9 +4377,9 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -4399,9 +4408,9 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -4430,9 +4439,9 @@
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -4461,9 +4470,9 @@
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -4492,9 +4501,9 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -4523,9 +4532,9 @@
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -4554,9 +4563,9 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -4585,9 +4594,9 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -4616,9 +4625,9 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -4647,9 +4656,9 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -4678,9 +4687,9 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -4709,9 +4718,9 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -4740,9 +4749,9 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -4771,9 +4780,9 @@
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -4802,9 +4811,9 @@
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -4833,9 +4842,9 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -4864,9 +4873,9 @@
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -4895,9 +4904,9 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -4926,9 +4935,9 @@
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -4957,9 +4966,9 @@
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -4988,9 +4997,9 @@
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -5019,9 +5028,9 @@
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -5050,9 +5059,9 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -5081,9 +5090,9 @@
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -5112,9 +5121,9 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -5143,9 +5152,9 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -5174,9 +5183,9 @@
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -5205,9 +5214,9 @@
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -5236,9 +5245,9 @@
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -5267,9 +5276,9 @@
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -5298,9 +5307,9 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -5329,9 +5338,9 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -5360,9 +5369,9 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -5391,9 +5400,9 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="31"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -5422,9 +5431,9 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -5453,9 +5462,9 @@
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="31"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -5484,9 +5493,9 @@
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="31"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -5515,9 +5524,9 @@
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -5546,9 +5555,9 @@
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -5577,9 +5586,9 @@
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -5608,9 +5617,9 @@
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="31"/>
-      <c r="I106" s="31"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -5639,9 +5648,9 @@
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -5670,9 +5679,9 @@
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -5701,9 +5710,9 @@
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -5732,9 +5741,9 @@
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -5763,9 +5772,9 @@
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -5794,9 +5803,9 @@
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -5825,9 +5834,9 @@
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -5856,9 +5865,9 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="31"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -5887,9 +5896,9 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="31"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="32"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -5918,9 +5927,9 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="31"/>
-      <c r="I116" s="31"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -5949,9 +5958,9 @@
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -5980,9 +5989,9 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="31"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -6011,9 +6020,9 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="31"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -6042,9 +6051,9 @@
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="32"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -6073,9 +6082,9 @@
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="31"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -6104,9 +6113,9 @@
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="31"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -6135,9 +6144,9 @@
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="31"/>
-      <c r="I123" s="31"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="32"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -6166,9 +6175,9 @@
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="G124" s="31"/>
-      <c r="H124" s="31"/>
-      <c r="I124" s="31"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="32"/>
+      <c r="I124" s="32"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -6197,9 +6206,9 @@
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
-      <c r="G125" s="31"/>
-      <c r="H125" s="31"/>
-      <c r="I125" s="31"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="32"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -6228,9 +6237,9 @@
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="31"/>
-      <c r="I126" s="31"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -6259,9 +6268,9 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="31"/>
-      <c r="I127" s="31"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="32"/>
+      <c r="I127" s="32"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -6290,9 +6299,9 @@
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -6321,9 +6330,9 @@
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
-      <c r="G129" s="31"/>
-      <c r="H129" s="31"/>
-      <c r="I129" s="31"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -6352,9 +6361,9 @@
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="G130" s="31"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="31"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -6383,9 +6392,9 @@
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-      <c r="G131" s="31"/>
-      <c r="H131" s="31"/>
-      <c r="I131" s="31"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -6414,9 +6423,9 @@
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="G132" s="31"/>
-      <c r="H132" s="31"/>
-      <c r="I132" s="31"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="32"/>
+      <c r="I132" s="32"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -6445,9 +6454,9 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="G133" s="31"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="31"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="32"/>
+      <c r="I133" s="32"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -6476,9 +6485,9 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-      <c r="G134" s="31"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="31"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -6507,9 +6516,9 @@
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="G135" s="31"/>
-      <c r="H135" s="31"/>
-      <c r="I135" s="31"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="32"/>
+      <c r="I135" s="32"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -6538,9 +6547,9 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
-      <c r="G136" s="31"/>
-      <c r="H136" s="31"/>
-      <c r="I136" s="31"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="32"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -6569,9 +6578,9 @@
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="31"/>
-      <c r="I137" s="31"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32"/>
+      <c r="I137" s="32"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -6600,9 +6609,9 @@
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
-      <c r="G138" s="31"/>
-      <c r="H138" s="31"/>
-      <c r="I138" s="31"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="32"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -6631,9 +6640,9 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="G139" s="31"/>
-      <c r="H139" s="31"/>
-      <c r="I139" s="31"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
+      <c r="I139" s="32"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -6662,9 +6671,9 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="G140" s="31"/>
-      <c r="H140" s="31"/>
-      <c r="I140" s="31"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="32"/>
+      <c r="I140" s="32"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -6693,9 +6702,9 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="G141" s="31"/>
-      <c r="H141" s="31"/>
-      <c r="I141" s="31"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="32"/>
+      <c r="I141" s="32"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -6724,9 +6733,9 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="G142" s="31"/>
-      <c r="H142" s="31"/>
-      <c r="I142" s="31"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -6755,9 +6764,9 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="G143" s="31"/>
-      <c r="H143" s="31"/>
-      <c r="I143" s="31"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32"/>
+      <c r="I143" s="32"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -6786,9 +6795,9 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="G144" s="31"/>
-      <c r="H144" s="31"/>
-      <c r="I144" s="31"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="32"/>
+      <c r="I144" s="32"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -6817,9 +6826,9 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-      <c r="G145" s="31"/>
-      <c r="H145" s="31"/>
-      <c r="I145" s="31"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="32"/>
+      <c r="I145" s="32"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -6848,9 +6857,9 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="G146" s="31"/>
-      <c r="H146" s="31"/>
-      <c r="I146" s="31"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="32"/>
+      <c r="I146" s="32"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -6879,9 +6888,9 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="G147" s="31"/>
-      <c r="H147" s="31"/>
-      <c r="I147" s="31"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32"/>
+      <c r="I147" s="32"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -6910,9 +6919,9 @@
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
-      <c r="G148" s="31"/>
-      <c r="H148" s="31"/>
-      <c r="I148" s="31"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="32"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -6941,9 +6950,9 @@
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="G149" s="31"/>
-      <c r="H149" s="31"/>
-      <c r="I149" s="31"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="32"/>
+      <c r="I149" s="32"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -6972,9 +6981,9 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="G150" s="31"/>
-      <c r="H150" s="31"/>
-      <c r="I150" s="31"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="32"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -7003,9 +7012,9 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-      <c r="G151" s="31"/>
-      <c r="H151" s="31"/>
-      <c r="I151" s="31"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="32"/>
+      <c r="I151" s="32"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
@@ -7034,9 +7043,9 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="G152" s="31"/>
-      <c r="H152" s="31"/>
-      <c r="I152" s="31"/>
+      <c r="G152" s="32"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="32"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -7065,9 +7074,9 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
-      <c r="G153" s="31"/>
-      <c r="H153" s="31"/>
-      <c r="I153" s="31"/>
+      <c r="G153" s="32"/>
+      <c r="H153" s="32"/>
+      <c r="I153" s="32"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
@@ -7096,9 +7105,9 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
-      <c r="G154" s="31"/>
-      <c r="H154" s="31"/>
-      <c r="I154" s="31"/>
+      <c r="G154" s="32"/>
+      <c r="H154" s="32"/>
+      <c r="I154" s="32"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -7127,9 +7136,9 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
-      <c r="G155" s="31"/>
-      <c r="H155" s="31"/>
-      <c r="I155" s="31"/>
+      <c r="G155" s="32"/>
+      <c r="H155" s="32"/>
+      <c r="I155" s="32"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -7158,9 +7167,9 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
-      <c r="G156" s="31"/>
-      <c r="H156" s="31"/>
-      <c r="I156" s="31"/>
+      <c r="G156" s="32"/>
+      <c r="H156" s="32"/>
+      <c r="I156" s="32"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -7189,9 +7198,9 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
-      <c r="G157" s="31"/>
-      <c r="H157" s="31"/>
-      <c r="I157" s="31"/>
+      <c r="G157" s="32"/>
+      <c r="H157" s="32"/>
+      <c r="I157" s="32"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -7220,9 +7229,9 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
-      <c r="G158" s="31"/>
-      <c r="H158" s="31"/>
-      <c r="I158" s="31"/>
+      <c r="G158" s="32"/>
+      <c r="H158" s="32"/>
+      <c r="I158" s="32"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -7251,9 +7260,9 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
-      <c r="G159" s="31"/>
-      <c r="H159" s="31"/>
-      <c r="I159" s="31"/>
+      <c r="G159" s="32"/>
+      <c r="H159" s="32"/>
+      <c r="I159" s="32"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -7282,9 +7291,9 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="G160" s="31"/>
-      <c r="H160" s="31"/>
-      <c r="I160" s="31"/>
+      <c r="G160" s="32"/>
+      <c r="H160" s="32"/>
+      <c r="I160" s="32"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
@@ -7313,9 +7322,9 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="G161" s="31"/>
-      <c r="H161" s="31"/>
-      <c r="I161" s="31"/>
+      <c r="G161" s="32"/>
+      <c r="H161" s="32"/>
+      <c r="I161" s="32"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
@@ -7344,9 +7353,9 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
-      <c r="G162" s="31"/>
-      <c r="H162" s="31"/>
-      <c r="I162" s="31"/>
+      <c r="G162" s="32"/>
+      <c r="H162" s="32"/>
+      <c r="I162" s="32"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
@@ -7375,9 +7384,9 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-      <c r="G163" s="31"/>
-      <c r="H163" s="31"/>
-      <c r="I163" s="31"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="32"/>
+      <c r="I163" s="32"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
@@ -7406,9 +7415,9 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
-      <c r="G164" s="31"/>
-      <c r="H164" s="31"/>
-      <c r="I164" s="31"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="32"/>
+      <c r="I164" s="32"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -7437,9 +7446,9 @@
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
-      <c r="G165" s="31"/>
-      <c r="H165" s="31"/>
-      <c r="I165" s="31"/>
+      <c r="G165" s="32"/>
+      <c r="H165" s="32"/>
+      <c r="I165" s="32"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
@@ -7468,9 +7477,9 @@
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
-      <c r="G166" s="31"/>
-      <c r="H166" s="31"/>
-      <c r="I166" s="31"/>
+      <c r="G166" s="32"/>
+      <c r="H166" s="32"/>
+      <c r="I166" s="32"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
@@ -7499,9 +7508,9 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
-      <c r="G167" s="31"/>
-      <c r="H167" s="31"/>
-      <c r="I167" s="31"/>
+      <c r="G167" s="32"/>
+      <c r="H167" s="32"/>
+      <c r="I167" s="32"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -7530,9 +7539,9 @@
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
-      <c r="G168" s="31"/>
-      <c r="H168" s="31"/>
-      <c r="I168" s="31"/>
+      <c r="G168" s="32"/>
+      <c r="H168" s="32"/>
+      <c r="I168" s="32"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -7561,9 +7570,9 @@
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
-      <c r="G169" s="31"/>
-      <c r="H169" s="31"/>
-      <c r="I169" s="31"/>
+      <c r="G169" s="32"/>
+      <c r="H169" s="32"/>
+      <c r="I169" s="32"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
@@ -7592,9 +7601,9 @@
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
-      <c r="G170" s="31"/>
-      <c r="H170" s="31"/>
-      <c r="I170" s="31"/>
+      <c r="G170" s="32"/>
+      <c r="H170" s="32"/>
+      <c r="I170" s="32"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
@@ -7623,9 +7632,9 @@
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
-      <c r="G171" s="31"/>
-      <c r="H171" s="31"/>
-      <c r="I171" s="31"/>
+      <c r="G171" s="32"/>
+      <c r="H171" s="32"/>
+      <c r="I171" s="32"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -7654,9 +7663,9 @@
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
-      <c r="G172" s="31"/>
-      <c r="H172" s="31"/>
-      <c r="I172" s="31"/>
+      <c r="G172" s="32"/>
+      <c r="H172" s="32"/>
+      <c r="I172" s="32"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
@@ -7685,9 +7694,9 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
-      <c r="G173" s="31"/>
-      <c r="H173" s="31"/>
-      <c r="I173" s="31"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="32"/>
+      <c r="I173" s="32"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -7716,9 +7725,9 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
-      <c r="G174" s="31"/>
-      <c r="H174" s="31"/>
-      <c r="I174" s="31"/>
+      <c r="G174" s="32"/>
+      <c r="H174" s="32"/>
+      <c r="I174" s="32"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -7747,9 +7756,9 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
-      <c r="G175" s="31"/>
-      <c r="H175" s="31"/>
-      <c r="I175" s="31"/>
+      <c r="G175" s="32"/>
+      <c r="H175" s="32"/>
+      <c r="I175" s="32"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
@@ -7778,9 +7787,9 @@
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
-      <c r="G176" s="31"/>
-      <c r="H176" s="31"/>
-      <c r="I176" s="31"/>
+      <c r="G176" s="32"/>
+      <c r="H176" s="32"/>
+      <c r="I176" s="32"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
@@ -7809,9 +7818,9 @@
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
-      <c r="G177" s="31"/>
-      <c r="H177" s="31"/>
-      <c r="I177" s="31"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="32"/>
+      <c r="I177" s="32"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
@@ -7840,9 +7849,9 @@
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
-      <c r="G178" s="31"/>
-      <c r="H178" s="31"/>
-      <c r="I178" s="31"/>
+      <c r="G178" s="32"/>
+      <c r="H178" s="32"/>
+      <c r="I178" s="32"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
@@ -7871,9 +7880,9 @@
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
-      <c r="G179" s="31"/>
-      <c r="H179" s="31"/>
-      <c r="I179" s="31"/>
+      <c r="G179" s="32"/>
+      <c r="H179" s="32"/>
+      <c r="I179" s="32"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
@@ -7902,9 +7911,9 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
-      <c r="G180" s="31"/>
-      <c r="H180" s="31"/>
-      <c r="I180" s="31"/>
+      <c r="G180" s="32"/>
+      <c r="H180" s="32"/>
+      <c r="I180" s="32"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
@@ -7933,9 +7942,9 @@
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
-      <c r="G181" s="31"/>
-      <c r="H181" s="31"/>
-      <c r="I181" s="31"/>
+      <c r="G181" s="32"/>
+      <c r="H181" s="32"/>
+      <c r="I181" s="32"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
@@ -7964,9 +7973,9 @@
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
-      <c r="G182" s="31"/>
-      <c r="H182" s="31"/>
-      <c r="I182" s="31"/>
+      <c r="G182" s="32"/>
+      <c r="H182" s="32"/>
+      <c r="I182" s="32"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
@@ -7995,9 +8004,9 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
-      <c r="G183" s="31"/>
-      <c r="H183" s="31"/>
-      <c r="I183" s="31"/>
+      <c r="G183" s="32"/>
+      <c r="H183" s="32"/>
+      <c r="I183" s="32"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
@@ -8026,9 +8035,9 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
-      <c r="G184" s="31"/>
-      <c r="H184" s="31"/>
-      <c r="I184" s="31"/>
+      <c r="G184" s="32"/>
+      <c r="H184" s="32"/>
+      <c r="I184" s="32"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
@@ -8057,9 +8066,9 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
-      <c r="G185" s="31"/>
-      <c r="H185" s="31"/>
-      <c r="I185" s="31"/>
+      <c r="G185" s="32"/>
+      <c r="H185" s="32"/>
+      <c r="I185" s="32"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -8088,9 +8097,9 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
-      <c r="G186" s="31"/>
-      <c r="H186" s="31"/>
-      <c r="I186" s="31"/>
+      <c r="G186" s="32"/>
+      <c r="H186" s="32"/>
+      <c r="I186" s="32"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
@@ -8119,9 +8128,9 @@
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
-      <c r="G187" s="31"/>
-      <c r="H187" s="31"/>
-      <c r="I187" s="31"/>
+      <c r="G187" s="32"/>
+      <c r="H187" s="32"/>
+      <c r="I187" s="32"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
@@ -8150,9 +8159,9 @@
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
-      <c r="G188" s="31"/>
-      <c r="H188" s="31"/>
-      <c r="I188" s="31"/>
+      <c r="G188" s="32"/>
+      <c r="H188" s="32"/>
+      <c r="I188" s="32"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
@@ -8181,9 +8190,9 @@
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
-      <c r="G189" s="31"/>
-      <c r="H189" s="31"/>
-      <c r="I189" s="31"/>
+      <c r="G189" s="32"/>
+      <c r="H189" s="32"/>
+      <c r="I189" s="32"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
@@ -8212,9 +8221,9 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
-      <c r="G190" s="31"/>
-      <c r="H190" s="31"/>
-      <c r="I190" s="31"/>
+      <c r="G190" s="32"/>
+      <c r="H190" s="32"/>
+      <c r="I190" s="32"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
@@ -8243,9 +8252,9 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
-      <c r="G191" s="31"/>
-      <c r="H191" s="31"/>
-      <c r="I191" s="31"/>
+      <c r="G191" s="32"/>
+      <c r="H191" s="32"/>
+      <c r="I191" s="32"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -8274,9 +8283,9 @@
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
-      <c r="G192" s="31"/>
-      <c r="H192" s="31"/>
-      <c r="I192" s="31"/>
+      <c r="G192" s="32"/>
+      <c r="H192" s="32"/>
+      <c r="I192" s="32"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -8305,9 +8314,9 @@
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
-      <c r="G193" s="31"/>
-      <c r="H193" s="31"/>
-      <c r="I193" s="31"/>
+      <c r="G193" s="32"/>
+      <c r="H193" s="32"/>
+      <c r="I193" s="32"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
@@ -8336,9 +8345,9 @@
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
-      <c r="G194" s="31"/>
-      <c r="H194" s="31"/>
-      <c r="I194" s="31"/>
+      <c r="G194" s="32"/>
+      <c r="H194" s="32"/>
+      <c r="I194" s="32"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
@@ -8367,9 +8376,9 @@
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
-      <c r="G195" s="31"/>
-      <c r="H195" s="31"/>
-      <c r="I195" s="31"/>
+      <c r="G195" s="32"/>
+      <c r="H195" s="32"/>
+      <c r="I195" s="32"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
@@ -8398,9 +8407,9 @@
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
-      <c r="G196" s="31"/>
-      <c r="H196" s="31"/>
-      <c r="I196" s="31"/>
+      <c r="G196" s="32"/>
+      <c r="H196" s="32"/>
+      <c r="I196" s="32"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
@@ -8429,9 +8438,9 @@
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
-      <c r="G197" s="31"/>
-      <c r="H197" s="31"/>
-      <c r="I197" s="31"/>
+      <c r="G197" s="32"/>
+      <c r="H197" s="32"/>
+      <c r="I197" s="32"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
@@ -8460,9 +8469,9 @@
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
-      <c r="G198" s="31"/>
-      <c r="H198" s="31"/>
-      <c r="I198" s="31"/>
+      <c r="G198" s="32"/>
+      <c r="H198" s="32"/>
+      <c r="I198" s="32"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
@@ -8491,9 +8500,9 @@
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
-      <c r="G199" s="31"/>
-      <c r="H199" s="31"/>
-      <c r="I199" s="31"/>
+      <c r="G199" s="32"/>
+      <c r="H199" s="32"/>
+      <c r="I199" s="32"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -8522,9 +8531,9 @@
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
-      <c r="G200" s="31"/>
-      <c r="H200" s="31"/>
-      <c r="I200" s="31"/>
+      <c r="G200" s="32"/>
+      <c r="H200" s="32"/>
+      <c r="I200" s="32"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -8553,9 +8562,9 @@
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
-      <c r="G201" s="31"/>
-      <c r="H201" s="31"/>
-      <c r="I201" s="31"/>
+      <c r="G201" s="32"/>
+      <c r="H201" s="32"/>
+      <c r="I201" s="32"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -8584,9 +8593,9 @@
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
-      <c r="G202" s="31"/>
-      <c r="H202" s="31"/>
-      <c r="I202" s="31"/>
+      <c r="G202" s="32"/>
+      <c r="H202" s="32"/>
+      <c r="I202" s="32"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
@@ -8615,9 +8624,9 @@
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
-      <c r="G203" s="31"/>
-      <c r="H203" s="31"/>
-      <c r="I203" s="31"/>
+      <c r="G203" s="32"/>
+      <c r="H203" s="32"/>
+      <c r="I203" s="32"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -8646,9 +8655,9 @@
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
-      <c r="G204" s="31"/>
-      <c r="H204" s="31"/>
-      <c r="I204" s="31"/>
+      <c r="G204" s="32"/>
+      <c r="H204" s="32"/>
+      <c r="I204" s="32"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
@@ -8677,9 +8686,9 @@
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
-      <c r="G205" s="31"/>
-      <c r="H205" s="31"/>
-      <c r="I205" s="31"/>
+      <c r="G205" s="32"/>
+      <c r="H205" s="32"/>
+      <c r="I205" s="32"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
@@ -8708,9 +8717,9 @@
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
-      <c r="G206" s="31"/>
-      <c r="H206" s="31"/>
-      <c r="I206" s="31"/>
+      <c r="G206" s="32"/>
+      <c r="H206" s="32"/>
+      <c r="I206" s="32"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -8739,9 +8748,9 @@
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
-      <c r="G207" s="31"/>
-      <c r="H207" s="31"/>
-      <c r="I207" s="31"/>
+      <c r="G207" s="32"/>
+      <c r="H207" s="32"/>
+      <c r="I207" s="32"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
@@ -8770,9 +8779,9 @@
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
-      <c r="G208" s="31"/>
-      <c r="H208" s="31"/>
-      <c r="I208" s="31"/>
+      <c r="G208" s="32"/>
+      <c r="H208" s="32"/>
+      <c r="I208" s="32"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
@@ -8801,9 +8810,9 @@
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
-      <c r="G209" s="31"/>
-      <c r="H209" s="31"/>
-      <c r="I209" s="31"/>
+      <c r="G209" s="32"/>
+      <c r="H209" s="32"/>
+      <c r="I209" s="32"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -8832,9 +8841,9 @@
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
-      <c r="G210" s="31"/>
-      <c r="H210" s="31"/>
-      <c r="I210" s="31"/>
+      <c r="G210" s="32"/>
+      <c r="H210" s="32"/>
+      <c r="I210" s="32"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
@@ -8863,9 +8872,9 @@
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
-      <c r="G211" s="31"/>
-      <c r="H211" s="31"/>
-      <c r="I211" s="31"/>
+      <c r="G211" s="32"/>
+      <c r="H211" s="32"/>
+      <c r="I211" s="32"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -8894,9 +8903,9 @@
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
-      <c r="G212" s="31"/>
-      <c r="H212" s="31"/>
-      <c r="I212" s="31"/>
+      <c r="G212" s="32"/>
+      <c r="H212" s="32"/>
+      <c r="I212" s="32"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
@@ -8925,9 +8934,9 @@
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
-      <c r="G213" s="31"/>
-      <c r="H213" s="31"/>
-      <c r="I213" s="31"/>
+      <c r="G213" s="32"/>
+      <c r="H213" s="32"/>
+      <c r="I213" s="32"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
@@ -8956,9 +8965,9 @@
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
-      <c r="G214" s="31"/>
-      <c r="H214" s="31"/>
-      <c r="I214" s="31"/>
+      <c r="G214" s="32"/>
+      <c r="H214" s="32"/>
+      <c r="I214" s="32"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
@@ -8987,9 +8996,9 @@
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
-      <c r="G215" s="31"/>
-      <c r="H215" s="31"/>
-      <c r="I215" s="31"/>
+      <c r="G215" s="32"/>
+      <c r="H215" s="32"/>
+      <c r="I215" s="32"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
@@ -9018,9 +9027,9 @@
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
-      <c r="G216" s="31"/>
-      <c r="H216" s="31"/>
-      <c r="I216" s="31"/>
+      <c r="G216" s="32"/>
+      <c r="H216" s="32"/>
+      <c r="I216" s="32"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
@@ -9049,9 +9058,9 @@
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
-      <c r="G217" s="31"/>
-      <c r="H217" s="31"/>
-      <c r="I217" s="31"/>
+      <c r="G217" s="32"/>
+      <c r="H217" s="32"/>
+      <c r="I217" s="32"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
@@ -9080,9 +9089,9 @@
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
-      <c r="G218" s="31"/>
-      <c r="H218" s="31"/>
-      <c r="I218" s="31"/>
+      <c r="G218" s="32"/>
+      <c r="H218" s="32"/>
+      <c r="I218" s="32"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
@@ -9111,9 +9120,9 @@
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
-      <c r="G219" s="31"/>
-      <c r="H219" s="31"/>
-      <c r="I219" s="31"/>
+      <c r="G219" s="32"/>
+      <c r="H219" s="32"/>
+      <c r="I219" s="32"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
@@ -9142,9 +9151,9 @@
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
-      <c r="G220" s="31"/>
-      <c r="H220" s="31"/>
-      <c r="I220" s="31"/>
+      <c r="G220" s="32"/>
+      <c r="H220" s="32"/>
+      <c r="I220" s="32"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>

--- a/Src/Data/Tables/ItemDefine.xlsx
+++ b/Src/Data/Tables/ItemDefine.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="191">
   <si>
     <t>描述</t>
   </si>
@@ -551,6 +551,39 @@
   </si>
   <si>
     <t>UI/ItemIcons/equip3017</t>
+  </si>
+  <si>
+    <t>Tiger Of Iceberg</t>
+  </si>
+  <si>
+    <t>Its feather looks nice.</t>
+  </si>
+  <si>
+    <t>RIDE</t>
+  </si>
+  <si>
+    <t>Ride</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/ride8001</t>
+  </si>
+  <si>
+    <t>Beast Of Nightmare</t>
+  </si>
+  <si>
+    <t>Our best recommandation is to stay indoor during night.(From adventurers who were teared apart by these big cats coming out late night)</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/ride8002</t>
+  </si>
+  <si>
+    <t>Big Cat</t>
+  </si>
+  <si>
+    <t>After all, a cat.</t>
+  </si>
+  <si>
+    <t>UI/ItemIcons/ride8003</t>
   </si>
 </sst>
 </file>
@@ -626,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -719,6 +752,37 @@
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -768,7 +832,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:Q55" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:Q58" displayName="Table_1" id="1">
   <tableColumns count="17">
     <tableColumn name="Key" id="1"/>
     <tableColumn name="ID" id="2"/>
@@ -4062,22 +4126,45 @@
       <c r="AD55" s="1"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
+      <c r="A56" s="32">
+        <v>8001.0</v>
+      </c>
+      <c r="B56" s="32">
+        <v>8001.0</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G56" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="40">
+        <v>1000.0</v>
+      </c>
+      <c r="L56" s="40">
+        <v>500.0</v>
+      </c>
+      <c r="M56" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="N56" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="O56" s="39"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
@@ -4093,22 +4180,45 @@
       <c r="AD56" s="1"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
+      <c r="A57" s="32">
+        <v>8002.0</v>
+      </c>
+      <c r="B57" s="32">
+        <v>8002.0</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G57" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="40">
+        <v>1000.0</v>
+      </c>
+      <c r="L57" s="40">
+        <v>500.0</v>
+      </c>
+      <c r="M57" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="N57" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="O57" s="39"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -4124,22 +4234,45 @@
       <c r="AD57" s="1"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="A58" s="32">
+        <v>8003.0</v>
+      </c>
+      <c r="B58" s="32">
+        <v>8003.0</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G58" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="40">
+        <v>1000.0</v>
+      </c>
+      <c r="L58" s="40">
+        <v>500.0</v>
+      </c>
+      <c r="M58" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="N58" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="O58" s="39"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
@@ -4160,9 +4293,9 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -4191,9 +4324,9 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -4222,9 +4355,9 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -4253,9 +4386,9 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -4284,9 +4417,9 @@
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -4315,9 +4448,9 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -4346,9 +4479,9 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -4377,9 +4510,9 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -4408,9 +4541,9 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -4439,9 +4572,9 @@
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -4470,9 +4603,9 @@
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -4501,9 +4634,9 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -4532,9 +4665,9 @@
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -4563,9 +4696,9 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -4594,9 +4727,9 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -4625,9 +4758,9 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -4656,9 +4789,9 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -4687,9 +4820,9 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -4718,9 +4851,9 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -4749,9 +4882,9 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -4780,9 +4913,9 @@
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -4811,9 +4944,9 @@
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -4842,9 +4975,9 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -4873,9 +5006,9 @@
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -4904,9 +5037,9 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -4935,9 +5068,9 @@
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -4966,9 +5099,9 @@
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -4997,9 +5130,9 @@
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -5028,9 +5161,9 @@
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -5059,9 +5192,9 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -5090,9 +5223,9 @@
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -5121,9 +5254,9 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -5152,9 +5285,9 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -5183,9 +5316,9 @@
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -5214,9 +5347,9 @@
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -5245,9 +5378,9 @@
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -5276,9 +5409,9 @@
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="32"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -5307,9 +5440,9 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="32"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -5338,9 +5471,9 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="32"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="43"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -5369,9 +5502,9 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -5400,9 +5533,9 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -5431,9 +5564,9 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -5462,9 +5595,9 @@
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -5493,9 +5626,9 @@
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -5524,9 +5657,9 @@
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="32"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -5555,9 +5688,9 @@
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -5586,9 +5719,9 @@
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="32"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -5617,9 +5750,9 @@
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -5648,9 +5781,9 @@
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="32"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -5679,9 +5812,9 @@
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="32"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -5710,9 +5843,9 @@
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
-      <c r="G109" s="32"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="32"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -5741,9 +5874,9 @@
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="G110" s="32"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="32"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -5772,9 +5905,9 @@
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
-      <c r="G111" s="32"/>
-      <c r="H111" s="32"/>
-      <c r="I111" s="32"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="43"/>
+      <c r="I111" s="43"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -5803,9 +5936,9 @@
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="32"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
+      <c r="I112" s="43"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -5834,9 +5967,9 @@
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="32"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -5865,9 +5998,9 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="32"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="43"/>
+      <c r="I114" s="43"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -5896,9 +6029,9 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="32"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="43"/>
+      <c r="I115" s="43"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -5927,9 +6060,9 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -5958,9 +6091,9 @@
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="43"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -5989,9 +6122,9 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="32"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -6020,9 +6153,9 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -6051,9 +6184,9 @@
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="32"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="43"/>
+      <c r="I120" s="43"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -6082,9 +6215,9 @@
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="32"/>
+      <c r="G121" s="43"/>
+      <c r="H121" s="43"/>
+      <c r="I121" s="43"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -6113,9 +6246,9 @@
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="43"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -6144,9 +6277,9 @@
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="32"/>
+      <c r="G123" s="43"/>
+      <c r="H123" s="43"/>
+      <c r="I123" s="43"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -6175,9 +6308,9 @@
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="32"/>
+      <c r="G124" s="43"/>
+      <c r="H124" s="43"/>
+      <c r="I124" s="43"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -6206,9 +6339,9 @@
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="32"/>
+      <c r="G125" s="43"/>
+      <c r="H125" s="43"/>
+      <c r="I125" s="43"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -6237,9 +6370,9 @@
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="32"/>
-      <c r="I126" s="32"/>
+      <c r="G126" s="43"/>
+      <c r="H126" s="43"/>
+      <c r="I126" s="43"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -6268,9 +6401,9 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="32"/>
+      <c r="G127" s="43"/>
+      <c r="H127" s="43"/>
+      <c r="I127" s="43"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -6299,9 +6432,9 @@
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="32"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
+      <c r="I128" s="43"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -6330,9 +6463,9 @@
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
-      <c r="G129" s="32"/>
-      <c r="H129" s="32"/>
-      <c r="I129" s="32"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43"/>
+      <c r="I129" s="43"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -6361,9 +6494,9 @@
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="32"/>
-      <c r="I130" s="32"/>
+      <c r="G130" s="43"/>
+      <c r="H130" s="43"/>
+      <c r="I130" s="43"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -6392,9 +6525,9 @@
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="32"/>
-      <c r="I131" s="32"/>
+      <c r="G131" s="43"/>
+      <c r="H131" s="43"/>
+      <c r="I131" s="43"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -6423,9 +6556,9 @@
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="32"/>
-      <c r="I132" s="32"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="43"/>
+      <c r="I132" s="43"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -6454,9 +6587,9 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="G133" s="32"/>
-      <c r="H133" s="32"/>
-      <c r="I133" s="32"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="43"/>
+      <c r="I133" s="43"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -6485,9 +6618,9 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="32"/>
-      <c r="I134" s="32"/>
+      <c r="G134" s="43"/>
+      <c r="H134" s="43"/>
+      <c r="I134" s="43"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -6516,9 +6649,9 @@
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="G135" s="32"/>
-      <c r="H135" s="32"/>
-      <c r="I135" s="32"/>
+      <c r="G135" s="43"/>
+      <c r="H135" s="43"/>
+      <c r="I135" s="43"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -6547,9 +6680,9 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
-      <c r="G136" s="32"/>
-      <c r="H136" s="32"/>
-      <c r="I136" s="32"/>
+      <c r="G136" s="43"/>
+      <c r="H136" s="43"/>
+      <c r="I136" s="43"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -6578,9 +6711,9 @@
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="32"/>
-      <c r="I137" s="32"/>
+      <c r="G137" s="43"/>
+      <c r="H137" s="43"/>
+      <c r="I137" s="43"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -6609,9 +6742,9 @@
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
-      <c r="G138" s="32"/>
-      <c r="H138" s="32"/>
-      <c r="I138" s="32"/>
+      <c r="G138" s="43"/>
+      <c r="H138" s="43"/>
+      <c r="I138" s="43"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -6640,9 +6773,9 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="32"/>
-      <c r="I139" s="32"/>
+      <c r="G139" s="43"/>
+      <c r="H139" s="43"/>
+      <c r="I139" s="43"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -6671,9 +6804,9 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="G140" s="32"/>
-      <c r="H140" s="32"/>
-      <c r="I140" s="32"/>
+      <c r="G140" s="43"/>
+      <c r="H140" s="43"/>
+      <c r="I140" s="43"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -6702,9 +6835,9 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="G141" s="32"/>
-      <c r="H141" s="32"/>
-      <c r="I141" s="32"/>
+      <c r="G141" s="43"/>
+      <c r="H141" s="43"/>
+      <c r="I141" s="43"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -6733,9 +6866,9 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="32"/>
-      <c r="I142" s="32"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -6764,9 +6897,9 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="G143" s="32"/>
-      <c r="H143" s="32"/>
-      <c r="I143" s="32"/>
+      <c r="G143" s="43"/>
+      <c r="H143" s="43"/>
+      <c r="I143" s="43"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -6795,9 +6928,9 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="G144" s="32"/>
-      <c r="H144" s="32"/>
-      <c r="I144" s="32"/>
+      <c r="G144" s="43"/>
+      <c r="H144" s="43"/>
+      <c r="I144" s="43"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -6826,9 +6959,9 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-      <c r="G145" s="32"/>
-      <c r="H145" s="32"/>
-      <c r="I145" s="32"/>
+      <c r="G145" s="43"/>
+      <c r="H145" s="43"/>
+      <c r="I145" s="43"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -6857,9 +6990,9 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="32"/>
-      <c r="I146" s="32"/>
+      <c r="G146" s="43"/>
+      <c r="H146" s="43"/>
+      <c r="I146" s="43"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -6888,9 +7021,9 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="G147" s="32"/>
-      <c r="H147" s="32"/>
-      <c r="I147" s="32"/>
+      <c r="G147" s="43"/>
+      <c r="H147" s="43"/>
+      <c r="I147" s="43"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -6919,9 +7052,9 @@
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
-      <c r="G148" s="32"/>
-      <c r="H148" s="32"/>
-      <c r="I148" s="32"/>
+      <c r="G148" s="43"/>
+      <c r="H148" s="43"/>
+      <c r="I148" s="43"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -6950,9 +7083,9 @@
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="G149" s="32"/>
-      <c r="H149" s="32"/>
-      <c r="I149" s="32"/>
+      <c r="G149" s="43"/>
+      <c r="H149" s="43"/>
+      <c r="I149" s="43"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -6981,9 +7114,9 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="G150" s="32"/>
-      <c r="H150" s="32"/>
-      <c r="I150" s="32"/>
+      <c r="G150" s="43"/>
+      <c r="H150" s="43"/>
+      <c r="I150" s="43"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -7012,9 +7145,9 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-      <c r="G151" s="32"/>
-      <c r="H151" s="32"/>
-      <c r="I151" s="32"/>
+      <c r="G151" s="43"/>
+      <c r="H151" s="43"/>
+      <c r="I151" s="43"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
@@ -7043,9 +7176,9 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="G152" s="32"/>
-      <c r="H152" s="32"/>
-      <c r="I152" s="32"/>
+      <c r="G152" s="43"/>
+      <c r="H152" s="43"/>
+      <c r="I152" s="43"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -7074,9 +7207,9 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
-      <c r="G153" s="32"/>
-      <c r="H153" s="32"/>
-      <c r="I153" s="32"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="43"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
@@ -7105,9 +7238,9 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
-      <c r="G154" s="32"/>
-      <c r="H154" s="32"/>
-      <c r="I154" s="32"/>
+      <c r="G154" s="43"/>
+      <c r="H154" s="43"/>
+      <c r="I154" s="43"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -7136,9 +7269,9 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
-      <c r="G155" s="32"/>
-      <c r="H155" s="32"/>
-      <c r="I155" s="32"/>
+      <c r="G155" s="43"/>
+      <c r="H155" s="43"/>
+      <c r="I155" s="43"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -7167,9 +7300,9 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
-      <c r="G156" s="32"/>
-      <c r="H156" s="32"/>
-      <c r="I156" s="32"/>
+      <c r="G156" s="43"/>
+      <c r="H156" s="43"/>
+      <c r="I156" s="43"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -7198,9 +7331,9 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
-      <c r="G157" s="32"/>
-      <c r="H157" s="32"/>
-      <c r="I157" s="32"/>
+      <c r="G157" s="43"/>
+      <c r="H157" s="43"/>
+      <c r="I157" s="43"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -7229,9 +7362,9 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
-      <c r="G158" s="32"/>
-      <c r="H158" s="32"/>
-      <c r="I158" s="32"/>
+      <c r="G158" s="43"/>
+      <c r="H158" s="43"/>
+      <c r="I158" s="43"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -7260,9 +7393,9 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
-      <c r="G159" s="32"/>
-      <c r="H159" s="32"/>
-      <c r="I159" s="32"/>
+      <c r="G159" s="43"/>
+      <c r="H159" s="43"/>
+      <c r="I159" s="43"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -7291,9 +7424,9 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="G160" s="32"/>
-      <c r="H160" s="32"/>
-      <c r="I160" s="32"/>
+      <c r="G160" s="43"/>
+      <c r="H160" s="43"/>
+      <c r="I160" s="43"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
@@ -7322,9 +7455,9 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="G161" s="32"/>
-      <c r="H161" s="32"/>
-      <c r="I161" s="32"/>
+      <c r="G161" s="43"/>
+      <c r="H161" s="43"/>
+      <c r="I161" s="43"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
@@ -7353,9 +7486,9 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
-      <c r="G162" s="32"/>
-      <c r="H162" s="32"/>
-      <c r="I162" s="32"/>
+      <c r="G162" s="43"/>
+      <c r="H162" s="43"/>
+      <c r="I162" s="43"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
@@ -7384,9 +7517,9 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-      <c r="G163" s="32"/>
-      <c r="H163" s="32"/>
-      <c r="I163" s="32"/>
+      <c r="G163" s="43"/>
+      <c r="H163" s="43"/>
+      <c r="I163" s="43"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
@@ -7415,9 +7548,9 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
-      <c r="G164" s="32"/>
-      <c r="H164" s="32"/>
-      <c r="I164" s="32"/>
+      <c r="G164" s="43"/>
+      <c r="H164" s="43"/>
+      <c r="I164" s="43"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -7446,9 +7579,9 @@
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
-      <c r="G165" s="32"/>
-      <c r="H165" s="32"/>
-      <c r="I165" s="32"/>
+      <c r="G165" s="43"/>
+      <c r="H165" s="43"/>
+      <c r="I165" s="43"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
@@ -7477,9 +7610,9 @@
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
-      <c r="G166" s="32"/>
-      <c r="H166" s="32"/>
-      <c r="I166" s="32"/>
+      <c r="G166" s="43"/>
+      <c r="H166" s="43"/>
+      <c r="I166" s="43"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
@@ -7508,9 +7641,9 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
-      <c r="G167" s="32"/>
-      <c r="H167" s="32"/>
-      <c r="I167" s="32"/>
+      <c r="G167" s="43"/>
+      <c r="H167" s="43"/>
+      <c r="I167" s="43"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -7539,9 +7672,9 @@
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
-      <c r="G168" s="32"/>
-      <c r="H168" s="32"/>
-      <c r="I168" s="32"/>
+      <c r="G168" s="43"/>
+      <c r="H168" s="43"/>
+      <c r="I168" s="43"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -7570,9 +7703,9 @@
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
-      <c r="G169" s="32"/>
-      <c r="H169" s="32"/>
-      <c r="I169" s="32"/>
+      <c r="G169" s="43"/>
+      <c r="H169" s="43"/>
+      <c r="I169" s="43"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
@@ -7601,9 +7734,9 @@
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
-      <c r="G170" s="32"/>
-      <c r="H170" s="32"/>
-      <c r="I170" s="32"/>
+      <c r="G170" s="43"/>
+      <c r="H170" s="43"/>
+      <c r="I170" s="43"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
@@ -7632,9 +7765,9 @@
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
-      <c r="G171" s="32"/>
-      <c r="H171" s="32"/>
-      <c r="I171" s="32"/>
+      <c r="G171" s="43"/>
+      <c r="H171" s="43"/>
+      <c r="I171" s="43"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -7663,9 +7796,9 @@
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
-      <c r="G172" s="32"/>
-      <c r="H172" s="32"/>
-      <c r="I172" s="32"/>
+      <c r="G172" s="43"/>
+      <c r="H172" s="43"/>
+      <c r="I172" s="43"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
@@ -7694,9 +7827,9 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
-      <c r="G173" s="32"/>
-      <c r="H173" s="32"/>
-      <c r="I173" s="32"/>
+      <c r="G173" s="43"/>
+      <c r="H173" s="43"/>
+      <c r="I173" s="43"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -7725,9 +7858,9 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
-      <c r="G174" s="32"/>
-      <c r="H174" s="32"/>
-      <c r="I174" s="32"/>
+      <c r="G174" s="43"/>
+      <c r="H174" s="43"/>
+      <c r="I174" s="43"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -7756,9 +7889,9 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
-      <c r="G175" s="32"/>
-      <c r="H175" s="32"/>
-      <c r="I175" s="32"/>
+      <c r="G175" s="43"/>
+      <c r="H175" s="43"/>
+      <c r="I175" s="43"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
@@ -7787,9 +7920,9 @@
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
-      <c r="G176" s="32"/>
-      <c r="H176" s="32"/>
-      <c r="I176" s="32"/>
+      <c r="G176" s="43"/>
+      <c r="H176" s="43"/>
+      <c r="I176" s="43"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
@@ -7818,9 +7951,9 @@
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
-      <c r="G177" s="32"/>
-      <c r="H177" s="32"/>
-      <c r="I177" s="32"/>
+      <c r="G177" s="43"/>
+      <c r="H177" s="43"/>
+      <c r="I177" s="43"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
@@ -7849,9 +7982,9 @@
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
-      <c r="G178" s="32"/>
-      <c r="H178" s="32"/>
-      <c r="I178" s="32"/>
+      <c r="G178" s="43"/>
+      <c r="H178" s="43"/>
+      <c r="I178" s="43"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
@@ -7880,9 +8013,9 @@
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
-      <c r="G179" s="32"/>
-      <c r="H179" s="32"/>
-      <c r="I179" s="32"/>
+      <c r="G179" s="43"/>
+      <c r="H179" s="43"/>
+      <c r="I179" s="43"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
@@ -7911,9 +8044,9 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
-      <c r="G180" s="32"/>
-      <c r="H180" s="32"/>
-      <c r="I180" s="32"/>
+      <c r="G180" s="43"/>
+      <c r="H180" s="43"/>
+      <c r="I180" s="43"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
@@ -7942,9 +8075,9 @@
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
-      <c r="G181" s="32"/>
-      <c r="H181" s="32"/>
-      <c r="I181" s="32"/>
+      <c r="G181" s="43"/>
+      <c r="H181" s="43"/>
+      <c r="I181" s="43"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
@@ -7973,9 +8106,9 @@
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
-      <c r="G182" s="32"/>
-      <c r="H182" s="32"/>
-      <c r="I182" s="32"/>
+      <c r="G182" s="43"/>
+      <c r="H182" s="43"/>
+      <c r="I182" s="43"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
@@ -8004,9 +8137,9 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
-      <c r="G183" s="32"/>
-      <c r="H183" s="32"/>
-      <c r="I183" s="32"/>
+      <c r="G183" s="43"/>
+      <c r="H183" s="43"/>
+      <c r="I183" s="43"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
@@ -8035,9 +8168,9 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
-      <c r="G184" s="32"/>
-      <c r="H184" s="32"/>
-      <c r="I184" s="32"/>
+      <c r="G184" s="43"/>
+      <c r="H184" s="43"/>
+      <c r="I184" s="43"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
@@ -8066,9 +8199,9 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
-      <c r="G185" s="32"/>
-      <c r="H185" s="32"/>
-      <c r="I185" s="32"/>
+      <c r="G185" s="43"/>
+      <c r="H185" s="43"/>
+      <c r="I185" s="43"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -8097,9 +8230,9 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
-      <c r="G186" s="32"/>
-      <c r="H186" s="32"/>
-      <c r="I186" s="32"/>
+      <c r="G186" s="43"/>
+      <c r="H186" s="43"/>
+      <c r="I186" s="43"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
@@ -8128,9 +8261,9 @@
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
-      <c r="G187" s="32"/>
-      <c r="H187" s="32"/>
-      <c r="I187" s="32"/>
+      <c r="G187" s="43"/>
+      <c r="H187" s="43"/>
+      <c r="I187" s="43"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
@@ -8159,9 +8292,9 @@
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
-      <c r="G188" s="32"/>
-      <c r="H188" s="32"/>
-      <c r="I188" s="32"/>
+      <c r="G188" s="43"/>
+      <c r="H188" s="43"/>
+      <c r="I188" s="43"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
@@ -8190,9 +8323,9 @@
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
-      <c r="G189" s="32"/>
-      <c r="H189" s="32"/>
-      <c r="I189" s="32"/>
+      <c r="G189" s="43"/>
+      <c r="H189" s="43"/>
+      <c r="I189" s="43"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
@@ -8221,9 +8354,9 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
-      <c r="G190" s="32"/>
-      <c r="H190" s="32"/>
-      <c r="I190" s="32"/>
+      <c r="G190" s="43"/>
+      <c r="H190" s="43"/>
+      <c r="I190" s="43"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
@@ -8252,9 +8385,9 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
-      <c r="G191" s="32"/>
-      <c r="H191" s="32"/>
-      <c r="I191" s="32"/>
+      <c r="G191" s="43"/>
+      <c r="H191" s="43"/>
+      <c r="I191" s="43"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -8283,9 +8416,9 @@
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
-      <c r="G192" s="32"/>
-      <c r="H192" s="32"/>
-      <c r="I192" s="32"/>
+      <c r="G192" s="43"/>
+      <c r="H192" s="43"/>
+      <c r="I192" s="43"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -8314,9 +8447,9 @@
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
-      <c r="G193" s="32"/>
-      <c r="H193" s="32"/>
-      <c r="I193" s="32"/>
+      <c r="G193" s="43"/>
+      <c r="H193" s="43"/>
+      <c r="I193" s="43"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
@@ -8345,9 +8478,9 @@
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
-      <c r="G194" s="32"/>
-      <c r="H194" s="32"/>
-      <c r="I194" s="32"/>
+      <c r="G194" s="43"/>
+      <c r="H194" s="43"/>
+      <c r="I194" s="43"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
@@ -8376,9 +8509,9 @@
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
-      <c r="G195" s="32"/>
-      <c r="H195" s="32"/>
-      <c r="I195" s="32"/>
+      <c r="G195" s="43"/>
+      <c r="H195" s="43"/>
+      <c r="I195" s="43"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
@@ -8407,9 +8540,9 @@
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
-      <c r="G196" s="32"/>
-      <c r="H196" s="32"/>
-      <c r="I196" s="32"/>
+      <c r="G196" s="43"/>
+      <c r="H196" s="43"/>
+      <c r="I196" s="43"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
@@ -8438,9 +8571,9 @@
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
-      <c r="G197" s="32"/>
-      <c r="H197" s="32"/>
-      <c r="I197" s="32"/>
+      <c r="G197" s="43"/>
+      <c r="H197" s="43"/>
+      <c r="I197" s="43"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
@@ -8469,9 +8602,9 @@
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
-      <c r="G198" s="32"/>
-      <c r="H198" s="32"/>
-      <c r="I198" s="32"/>
+      <c r="G198" s="43"/>
+      <c r="H198" s="43"/>
+      <c r="I198" s="43"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
@@ -8500,9 +8633,9 @@
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
-      <c r="G199" s="32"/>
-      <c r="H199" s="32"/>
-      <c r="I199" s="32"/>
+      <c r="G199" s="43"/>
+      <c r="H199" s="43"/>
+      <c r="I199" s="43"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -8531,9 +8664,9 @@
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
-      <c r="G200" s="32"/>
-      <c r="H200" s="32"/>
-      <c r="I200" s="32"/>
+      <c r="G200" s="43"/>
+      <c r="H200" s="43"/>
+      <c r="I200" s="43"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -8562,9 +8695,9 @@
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
-      <c r="G201" s="32"/>
-      <c r="H201" s="32"/>
-      <c r="I201" s="32"/>
+      <c r="G201" s="43"/>
+      <c r="H201" s="43"/>
+      <c r="I201" s="43"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -8593,9 +8726,9 @@
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
-      <c r="G202" s="32"/>
-      <c r="H202" s="32"/>
-      <c r="I202" s="32"/>
+      <c r="G202" s="43"/>
+      <c r="H202" s="43"/>
+      <c r="I202" s="43"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
@@ -8624,9 +8757,9 @@
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
-      <c r="G203" s="32"/>
-      <c r="H203" s="32"/>
-      <c r="I203" s="32"/>
+      <c r="G203" s="43"/>
+      <c r="H203" s="43"/>
+      <c r="I203" s="43"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -8655,9 +8788,9 @@
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
-      <c r="G204" s="32"/>
-      <c r="H204" s="32"/>
-      <c r="I204" s="32"/>
+      <c r="G204" s="43"/>
+      <c r="H204" s="43"/>
+      <c r="I204" s="43"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
@@ -8686,9 +8819,9 @@
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
-      <c r="G205" s="32"/>
-      <c r="H205" s="32"/>
-      <c r="I205" s="32"/>
+      <c r="G205" s="43"/>
+      <c r="H205" s="43"/>
+      <c r="I205" s="43"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
@@ -8717,9 +8850,9 @@
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
-      <c r="G206" s="32"/>
-      <c r="H206" s="32"/>
-      <c r="I206" s="32"/>
+      <c r="G206" s="43"/>
+      <c r="H206" s="43"/>
+      <c r="I206" s="43"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -8748,9 +8881,9 @@
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
-      <c r="G207" s="32"/>
-      <c r="H207" s="32"/>
-      <c r="I207" s="32"/>
+      <c r="G207" s="43"/>
+      <c r="H207" s="43"/>
+      <c r="I207" s="43"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
@@ -8779,9 +8912,9 @@
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
-      <c r="G208" s="32"/>
-      <c r="H208" s="32"/>
-      <c r="I208" s="32"/>
+      <c r="G208" s="43"/>
+      <c r="H208" s="43"/>
+      <c r="I208" s="43"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
@@ -8810,9 +8943,9 @@
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
-      <c r="G209" s="32"/>
-      <c r="H209" s="32"/>
-      <c r="I209" s="32"/>
+      <c r="G209" s="43"/>
+      <c r="H209" s="43"/>
+      <c r="I209" s="43"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -8841,9 +8974,9 @@
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
-      <c r="G210" s="32"/>
-      <c r="H210" s="32"/>
-      <c r="I210" s="32"/>
+      <c r="G210" s="43"/>
+      <c r="H210" s="43"/>
+      <c r="I210" s="43"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
@@ -8872,9 +9005,9 @@
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
-      <c r="G211" s="32"/>
-      <c r="H211" s="32"/>
-      <c r="I211" s="32"/>
+      <c r="G211" s="43"/>
+      <c r="H211" s="43"/>
+      <c r="I211" s="43"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -8903,9 +9036,9 @@
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
-      <c r="G212" s="32"/>
-      <c r="H212" s="32"/>
-      <c r="I212" s="32"/>
+      <c r="G212" s="43"/>
+      <c r="H212" s="43"/>
+      <c r="I212" s="43"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
@@ -8934,9 +9067,9 @@
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
-      <c r="G213" s="32"/>
-      <c r="H213" s="32"/>
-      <c r="I213" s="32"/>
+      <c r="G213" s="43"/>
+      <c r="H213" s="43"/>
+      <c r="I213" s="43"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
@@ -8965,9 +9098,9 @@
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
-      <c r="G214" s="32"/>
-      <c r="H214" s="32"/>
-      <c r="I214" s="32"/>
+      <c r="G214" s="43"/>
+      <c r="H214" s="43"/>
+      <c r="I214" s="43"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
@@ -8996,9 +9129,9 @@
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
-      <c r="G215" s="32"/>
-      <c r="H215" s="32"/>
-      <c r="I215" s="32"/>
+      <c r="G215" s="43"/>
+      <c r="H215" s="43"/>
+      <c r="I215" s="43"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
@@ -9027,9 +9160,9 @@
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
-      <c r="G216" s="32"/>
-      <c r="H216" s="32"/>
-      <c r="I216" s="32"/>
+      <c r="G216" s="43"/>
+      <c r="H216" s="43"/>
+      <c r="I216" s="43"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
@@ -9058,9 +9191,9 @@
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
-      <c r="G217" s="32"/>
-      <c r="H217" s="32"/>
-      <c r="I217" s="32"/>
+      <c r="G217" s="43"/>
+      <c r="H217" s="43"/>
+      <c r="I217" s="43"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
@@ -9089,9 +9222,9 @@
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
-      <c r="G218" s="32"/>
-      <c r="H218" s="32"/>
-      <c r="I218" s="32"/>
+      <c r="G218" s="43"/>
+      <c r="H218" s="43"/>
+      <c r="I218" s="43"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
@@ -9120,9 +9253,9 @@
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
-      <c r="G219" s="32"/>
-      <c r="H219" s="32"/>
-      <c r="I219" s="32"/>
+      <c r="G219" s="43"/>
+      <c r="H219" s="43"/>
+      <c r="I219" s="43"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
@@ -9151,9 +9284,9 @@
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
-      <c r="G220" s="32"/>
-      <c r="H220" s="32"/>
-      <c r="I220" s="32"/>
+      <c r="G220" s="43"/>
+      <c r="H220" s="43"/>
+      <c r="I220" s="43"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
